--- a/data/TIDEs/Dox6hrs.xlsx
+++ b/data/TIDEs/Dox6hrs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6BC6E0-7AF3-4B3D-BEC5-BB5DA5A13E68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EBAD7-1F24-40BE-B86A-04A851779B83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{A545EC29-A418-4EEB-B380-6B1404B58544}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{086DFBD6-A60D-48D5-8192-4A765A5DC374}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1599,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2190C1-C077-4C0A-AFF0-6316281A39B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F52639-B94A-414E-B622-66D1D84A9EDD}">
   <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1616,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.49564730103656079</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,10 +1630,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.59454504299731392</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1644,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.36771426836344212</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,10 +1658,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.35451847007052584</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,10 +1672,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.35849184598665224</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1686,10 +1686,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.1380294246287488</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1700,10 +1700,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.56974775261123867</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1714,10 +1714,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.54150171911689371</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,10 +1728,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.48827379859875236</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,10 +1742,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.52574365878479934</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,10 +1756,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.52528468183478783</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.1431718631393868</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,10 +1784,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.1913624110354255</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,10 +1798,10 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1.1913624110354255</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,10 +1812,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.0788880002106751</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1826,10 +1826,10 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.40734472575438579</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1840,10 +1840,10 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.43453955158331886</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,10 +1854,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.37531933187444921</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1868,10 +1868,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.45350192955381952</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,10 +1882,10 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.40204780989790884</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,10 +1896,10 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.48801065914622299</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1910,10 +1910,10 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.37292598035161806</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1924,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.41263326026515318</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1938,10 +1938,10 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.3688174319227957</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,10 +1952,10 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>9.5957806706751386E-2</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>-0.29599999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1966,10 +1966,10 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.36305600430819568</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1980,10 +1980,10 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.39490602763007643</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1994,10 +1994,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>0.55269685135425328</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>-0.504</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2008,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>0.2812722941860451</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>-0.40699999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,10 +2022,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.36236862199252384</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2036,10 +2036,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.33044058928191561</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2050,10 +2050,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.45410862469921059</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2064,10 +2064,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.43934292363388344</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.42127410526064557</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2092,10 +2092,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.39207036981681381</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2106,10 +2106,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.40831492566028066</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2120,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.43085152132730825</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2134,10 +2134,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.41451666118182834</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2148,10 +2148,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.47441702489079862</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,10 +2162,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.29572132623853881</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2176,10 +2176,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.45723818717850329</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2190,10 +2190,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.49887050400729271</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2204,10 +2204,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.4707532510833437</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,10 +2218,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.68732266288734301</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2232,10 +2232,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.43564285083295101</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.41699999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2246,10 +2246,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.52391165417779839</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2260,10 +2260,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.57718966153638385</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2274,10 +2274,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.55069001454219602</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2288,10 +2288,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.3259515056644442</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2302,10 +2302,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.7692155595840402</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2316,10 +2316,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.39083127054352157</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2330,10 +2330,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.50831796956234976</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2344,10 +2344,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.38247341374691612</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2358,10 +2358,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.44971166849040656</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2372,10 +2372,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.44843779839774256</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2386,10 +2386,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>0.54797179263132678</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2400,10 +2400,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.45341709656471618</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.38651621874465097</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2428,10 +2428,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.48527374837145587</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2442,10 +2442,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.50046285922113387</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2456,10 +2456,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.49445899165574364</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2470,10 +2470,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.38987750276888417</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2484,10 +2484,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.37923286116534838</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,10 +2498,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.37773077441748149</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,10 +2512,10 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.37710247903373295</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2526,10 +2526,10 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.35274263168522668</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2540,10 +2540,10 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.38443396023686827</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2554,10 +2554,10 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.53173676227999123</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2568,10 +2568,10 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.65492144864561386</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2582,10 +2582,10 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.63648829334733847</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2596,10 +2596,10 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>0.64545254363779381</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,10 +2610,10 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.63608412333441389</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2624,10 +2624,10 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.63608412333441389</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,10 +2638,10 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.64059994416449551</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,10 +2652,10 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.63021562849892443</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,10 +2666,10 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.65723633687493699</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2680,10 +2680,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.64490262700793266</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2694,10 +2694,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.65018808642754611</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,10 +2708,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.64899600344088293</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2722,10 +2722,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.63757656320067069</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,10 +2736,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.63757656320067069</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,10 +2750,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.65018132622430591</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2764,10 +2764,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.63744886730417716</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2778,10 +2778,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.63258169253643803</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2792,10 +2792,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.65205007043698593</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2806,10 +2806,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.63258169253643803</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2820,10 +2820,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.63744886730417716</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2834,10 +2834,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.63023930874378564</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2848,10 +2848,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.63097666720993062</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2862,10 +2862,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.62616018478370616</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,10 +2876,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.62142037542696638</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2890,10 +2890,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.62592290714493848</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2904,10 +2904,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.62592290714493848</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2918,10 +2918,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>0.61918822145985053</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2932,10 +2932,10 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.61261015637209015</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2946,10 +2946,10 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.62026880524403216</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2960,10 +2960,10 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.619952443983387</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2974,10 +2974,10 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>0.61544476154563066</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2988,10 +2988,10 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.61544476154563066</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3002,10 +3002,10 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.6120913302809694</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3016,10 +3016,10 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.60609440384252877</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3030,10 +3030,10 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.60197808110724171</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3044,10 +3044,10 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>0.59731562468076371</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3058,10 +3058,10 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.59710800674684195</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3072,10 +3072,10 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>0.84370384591842029</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,10 +3086,10 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.5920664095468241</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3100,10 +3100,10 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.58261743085148465</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3114,10 +3114,10 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.57579334438763274</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3128,10 +3128,10 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.56451899186091603</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3142,10 +3142,10 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.55604533619036356</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3156,10 +3156,10 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.5703411208913981</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3170,10 +3170,10 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.60622408579784015</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,10 +3184,10 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>0.59380433474884531</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3198,10 +3198,10 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.58464620405670342</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3212,10 +3212,10 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.56748357134849181</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3226,10 +3226,10 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.84370384591842029</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3240,10 +3240,10 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.13861261146277526</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3254,10 +3254,10 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.13775263179054995</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3268,10 +3268,10 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>0.15064958893763522</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3282,10 +3282,10 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.16360541348077889</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,10 +3296,10 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.15988559327810811</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,10 +3310,10 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.15064958893763522</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3324,10 +3324,10 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.13499761159637494</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,10 +3338,10 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>0.14551906987369981</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,10 +3352,10 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>0.14868285038424156</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3366,10 +3366,10 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.22618781678047165</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3380,10 +3380,10 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.22617704167807412</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3394,10 +3394,10 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.31811327699201919</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3408,10 +3408,10 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.31565363715471489</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3422,10 +3422,10 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.20774575858948371</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3436,10 +3436,10 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>0.20774575858948371</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3450,10 +3450,10 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>0.2023314485889755</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3464,10 +3464,10 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>0.34944150287533465</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3478,10 +3478,10 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>0.20921862133135313</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3492,10 +3492,10 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>0.20921862133135313</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3506,10 +3506,10 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>0.2991245058601511</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3520,10 +3520,10 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>0.29613166823915121</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3534,10 +3534,10 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.29613166823915121</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3548,10 +3548,10 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>0.3170458513139901</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3562,10 +3562,10 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>0.33717913848618702</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3576,10 +3576,10 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.19895613326389805</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3590,10 +3590,10 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.3113556205441862</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3604,10 +3604,10 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>0.31565363715471489</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,10 +3618,10 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>0.31565363715471489</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3632,10 +3632,10 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>0.33959662533910995</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,10 +3660,10 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>0.37416359030579227</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3674,10 +3674,10 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>0.18957643986891232</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3688,10 +3688,10 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>0.37095719646602582</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3702,10 +3702,10 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>0.33717913848618702</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3716,10 +3716,10 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>0.33237058739171715</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3730,10 +3730,10 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3744,10 +3744,10 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>0.33777414638594744</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3758,10 +3758,10 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>0.33358691876342911</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3772,10 +3772,10 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.34958300826681776</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3786,10 +3786,10 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>0.31826157589016618</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3800,10 +3800,10 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>0.28597299920430969</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3814,10 +3814,10 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>0.19117901825895245</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3828,10 +3828,10 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>6.7621958446117012E-3</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3842,10 +3842,10 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>0.15727391974476157</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>-0.51900000000000002</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,10 +3856,10 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>-2.8986586635390155E-2</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3870,10 +3870,10 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>0.3113556205441862</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3884,10 +3884,10 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3898,10 +3898,10 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>0.33237058739171715</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3912,10 +3912,10 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,10 +3926,10 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.33717913848618702</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3940,10 +3940,10 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.28316145294397171</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3954,10 +3954,10 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>0.28614439877554965</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3968,10 +3968,10 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>0.33717913848618702</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3982,10 +3982,10 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3996,10 +3996,10 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -4010,10 +4010,10 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4024,10 +4024,10 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>0.27843743090409367</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,10 +4038,10 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>0.35427741067089802</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,10 +4052,10 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>0.3587009810644044</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4066,10 +4066,10 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>0.36439813099377866</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4080,10 +4080,10 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>0.36365222355807286</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4094,10 +4094,10 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>0.31565363715471489</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4108,10 +4108,10 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>0.28614439877554965</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4122,10 +4122,10 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>0.2838116908678579</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4136,10 +4136,10 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4150,10 +4150,10 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>0.34256876741851522</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4164,10 +4164,10 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -4178,10 +4178,10 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>0.33717913848618697</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4192,10 +4192,10 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>0.47306720263172269</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4206,10 +4206,10 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>0.33652394263602231</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4220,10 +4220,10 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>0.40909199707241817</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4234,10 +4234,10 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>0.3946667256373011</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4248,10 +4248,10 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>0.17941334341578821</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4262,10 +4262,10 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>0.17643645566043595</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4276,10 +4276,10 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>2.8732423485489517E-2</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4290,10 +4290,10 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>-4.4019957144531399E-2</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4304,10 +4304,10 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>0.34867479032757587</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4318,10 +4318,10 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>0.35331033307807219</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4332,10 +4332,10 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>0.21652014081483614</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,10 +4346,10 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>0.38476756700290021</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4360,10 +4360,10 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>0.89663179370903578</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4374,10 +4374,10 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>-0.10016458440216673</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4388,10 +4388,10 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>0.30603917897565702</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4402,10 +4402,10 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>0.24245538748665924</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,10 +4416,10 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>0.37283884127322919</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4430,10 +4430,10 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>0.34254321204063681</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,10 +4444,10 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>0.3022460608537757</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4458,10 +4458,10 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>0.54779684086262892</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4472,10 +4472,10 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>0.42774159877366102</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4486,10 +4486,10 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>0.44398501386303396</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4500,10 +4500,10 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>0.38934116871246172</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4514,10 +4514,10 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>0.43546004687442835</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4528,10 +4528,10 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>0.45985588917964038</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,10 +4542,10 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>0.42810138266487041</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4556,10 +4556,10 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>0.42810138266487041</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4570,10 +4570,10 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>0.42482027764646696</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4584,10 +4584,10 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>0.43547837046277427</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,10 +4598,10 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>0.23436500512919975</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,10 +4612,10 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>0.45321853468869627</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4626,10 +4626,10 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>0.29883146405855504</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>-0.53500000000000003</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,10 +4640,10 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>0.46482477630273766</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,10 +4654,10 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>0.13354890286941282</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,10 +4668,10 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>9.1797110560063733E-2</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>-0.39700000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4682,10 +4682,10 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>0.18866559273022829</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4696,10 +4696,10 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>0.44566780495646613</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,10 +4710,10 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1.3218824762315553</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,10 +4724,10 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>-0.78832584904971281</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>-3.9E-2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4738,10 +4738,10 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>0.29853711413264455</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,10 +4752,10 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>0.2521443475040977</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,10 +4766,10 @@
         <v>243</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>0.77601720571205324</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4780,10 +4780,10 @@
         <v>245</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>0.39449234696233931</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,10 +4794,10 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1.3770440999603215</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4808,10 +4808,10 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>0.4479068170485197</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4822,10 +4822,10 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>0.52096623108352025</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4836,10 +4836,10 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>0.3685371347766494</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4850,10 +4850,10 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>0.34944150287533465</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,10 +4864,10 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>0.73450463055243043</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,10 +4878,10 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>-0.10215376920495829</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4892,10 +4892,10 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>0.28537812331432966</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>-0.22500000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4906,10 +4906,10 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>0.51786621863013294</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4920,10 +4920,10 @@
         <v>265</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>0.53856611118389441</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4934,10 +4934,10 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>0.49014158412165332</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4948,10 +4948,10 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>0.46660415931788352</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4962,10 +4962,10 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>0.41401892658134121</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,10 +4976,10 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>0.45853203810116311</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4990,10 +4990,10 @@
         <v>275</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>0.33090030922064811</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5004,10 +5004,10 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>0.24219207301069315</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,10 +5018,10 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>0.30370938955222315</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5032,10 +5032,10 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>0.23723162277478019</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5046,10 +5046,10 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>0.24397675417795672</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -5060,10 +5060,10 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>0.31795899217908086</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5074,10 +5074,10 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>0.35778161197183889</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5088,10 +5088,10 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>0.22824864780523635</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -5102,10 +5102,10 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>0.18092548960877036</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -5116,10 +5116,10 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>0.27790233264743897</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -5130,10 +5130,10 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>0.16579810364534672</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -5144,10 +5144,10 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>0.2479236265950048</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -5158,10 +5158,10 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>0.38096069159413137</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5172,10 +5172,10 @@
         <v>301</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>0.39494383815746276</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,10 +5186,10 @@
         <v>303</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>0.38806832249312856</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5200,10 +5200,10 @@
         <v>305</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>0.20966825913768783</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5214,10 +5214,10 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>0.23536934702829659</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5228,10 +5228,10 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>0.20537850186343656</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5242,10 +5242,10 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>0.30684575766760003</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5256,10 +5256,10 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>0.34079151525104512</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5270,10 +5270,10 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>0.58835341435597499</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5284,10 +5284,10 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>-9.4401411752612213E-2</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>-0.216</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5298,10 +5298,10 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>0.86494584766854499</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5312,10 +5312,10 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>0.32844904077766279</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5326,10 +5326,10 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>2.1501899176946507E-2</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>-0.23799999999999999</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5340,10 +5340,10 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>0.6046446927530118</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5354,10 +5354,10 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>0.19443998405298912</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5368,10 +5368,10 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>0.35855927757901473</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5382,10 +5382,10 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>1.3392299627688724</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5396,10 +5396,10 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>0</v>
+        <v>0.44284781361885744</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5410,10 +5410,10 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>4.5248822220655946E-2</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>-0.14099999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5424,10 +5424,10 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>-0.26891431390237802</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5438,10 +5438,10 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>7.5707949238016159E-2</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5452,10 +5452,10 @@
         <v>341</v>
       </c>
       <c r="C275">
-        <v>0</v>
+        <v>0.18131379874821091</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>-0.41699999999999998</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5466,10 +5466,10 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>0</v>
+        <v>0.1539794473260587</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5480,10 +5480,10 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>0.40559971361505498</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5494,10 +5494,10 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>-0.42534345220656017</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>-2.7E-2</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5508,10 +5508,10 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>0.85173383290336901</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5522,10 +5522,10 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>0</v>
+        <v>0.12640037191486334</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>-0.47599999999999998</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5536,10 +5536,10 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>0</v>
+        <v>0.1118012079081156</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5550,10 +5550,10 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>0</v>
+        <v>8.2956299261440353E-2</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5564,10 +5564,10 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>0.5841282327153402</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>-0.51900000000000002</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5578,10 +5578,10 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>0.17013765314618495</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5592,10 +5592,10 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>0</v>
+        <v>0.10479018215737293</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>-0.22800000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,10 +5606,10 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0</v>
+        <v>0.64022377426767541</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>-0.58499999999999996</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5620,10 +5620,10 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>0</v>
+        <v>0.26301323717863917</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5634,10 +5634,10 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>0.29204348569199789</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>-0.17199999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5648,10 +5648,10 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>-3.0100409487427135E-2</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5662,10 +5662,10 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>1.0677990553459498</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5676,10 +5676,10 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>0.31624386931887388</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5690,10 +5690,10 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>0</v>
+        <v>0.23910280327541195</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>-0.26900000000000002</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5704,10 +5704,10 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>2.5232129810133296E-2</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>-0.29599999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5718,10 +5718,10 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>0</v>
+        <v>0.33933073163294236</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5732,10 +5732,10 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>8.4868379552277592E-2</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>-0.47599999999999998</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5746,10 +5746,10 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>0</v>
+        <v>4.6971111030551897E-2</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5760,10 +5760,10 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>0.40741342396983266</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5774,10 +5774,10 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>0.41468848477335507</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>-0.48799999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5788,10 +5788,10 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>0.39130733093479547</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>-0.22700000000000001</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5802,10 +5802,10 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>-0.16012773854704659</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,10 +5816,10 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0</v>
+        <v>0.35120824207580914</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>-0.41199999999999998</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5830,10 +5830,10 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>0</v>
+        <v>0.60663739878708645</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5844,10 +5844,10 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>4.6182207534235013E-2</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5858,10 +5858,10 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>0.62933561616045131</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,10 +5872,10 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>0.1671381436504118</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>-0.30099999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5886,10 +5886,10 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>0.23433850185279864</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5900,10 +5900,10 @@
         <v>405</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1.09860992643195</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>-1.1567150393111202E-2</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>-0.29299999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/TIDEs/Dox6hrs.xlsx
+++ b/data/TIDEs/Dox6hrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EBAD7-1F24-40BE-B86A-04A851779B83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E1A78-8244-4BB2-992F-13F31BE5FDEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7284" xr2:uid="{086DFBD6-A60D-48D5-8192-4A765A5DC374}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="7290" xr2:uid="{086DFBD6-A60D-48D5-8192-4A765A5DC374}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1606,9 +1606,9 @@
       <selection sqref="A1:D308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>0.49564730103656079</v>
+        <v>0.31864638433520109</v>
       </c>
       <c r="D1">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1630,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.59454504299731392</v>
+        <v>0.53253137649541693</v>
       </c>
       <c r="D2">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1644,13 +1644,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.36771426836344212</v>
+        <v>0.30550957778776366</v>
       </c>
       <c r="D3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1658,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.35451847007052584</v>
+        <v>0.30067389279645523</v>
       </c>
       <c r="D4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>262</v>
       </c>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.35849184598665224</v>
+        <v>0.3099783322218016</v>
       </c>
       <c r="D5">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>310</v>
       </c>
@@ -1686,13 +1686,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1.1380294246287488</v>
+        <v>1.144178361615791</v>
       </c>
       <c r="D6">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1700,13 +1700,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.56974775261123867</v>
+        <v>0.5544033125612835</v>
       </c>
       <c r="D7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1714,13 +1714,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.54150171911689371</v>
+        <v>0.48609276032303927</v>
       </c>
       <c r="D8">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.48827379859875236</v>
+        <v>0.47752364169715267</v>
       </c>
       <c r="D9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1742,13 +1742,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.52574365878479934</v>
+        <v>0.51468635454315403</v>
       </c>
       <c r="D10">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1756,13 +1756,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.52528468183478783</v>
+        <v>0.5145345249331883</v>
       </c>
       <c r="D11">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1770,13 +1770,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1.1431718631393868</v>
+        <v>1.1502667904321275</v>
       </c>
       <c r="D12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1784,13 +1784,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1.1913624110354255</v>
+        <v>1.1979505578072562</v>
       </c>
       <c r="D13">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1798,13 +1798,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1.1913624110354255</v>
+        <v>1.1979505578072562</v>
       </c>
       <c r="D14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1812,13 +1812,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1.0788880002106751</v>
+        <v>1.0859829275034159</v>
       </c>
       <c r="D15">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1826,13 +1826,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.40734472575438579</v>
+        <v>0.37303823641190759</v>
       </c>
       <c r="D16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1840,13 +1840,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.43453955158331886</v>
+        <v>0.3839903594090589</v>
       </c>
       <c r="D17">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1854,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.37531933187444921</v>
+        <v>0.3369014475481773</v>
       </c>
       <c r="D18">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1868,13 +1868,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.45350192955381952</v>
+        <v>0.40300717865550012</v>
       </c>
       <c r="D19">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1882,13 +1882,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0.40204780989790884</v>
+        <v>0.368149731142841</v>
       </c>
       <c r="D20">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1896,13 +1896,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0.48801065914622299</v>
+        <v>0.43806016911927209</v>
       </c>
       <c r="D21">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1910,13 +1910,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.37292598035161806</v>
+        <v>0.34328431586871028</v>
       </c>
       <c r="D22">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1924,13 +1924,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>0.41263326026515318</v>
+        <v>0.37065661848020864</v>
       </c>
       <c r="D23">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>0.3688174319227957</v>
+        <v>0.28280239749824987</v>
       </c>
       <c r="D24">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1952,13 +1952,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>9.5957806706751386E-2</v>
+        <v>-7.8074385701991628E-2</v>
       </c>
       <c r="D25">
-        <v>-0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1966,13 +1966,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.36305600430819568</v>
+        <v>0.33630470567541937</v>
       </c>
       <c r="D26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0.39490602763007643</v>
+        <v>0.34459373206090521</v>
       </c>
       <c r="D27">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1994,13 +1994,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0.55269685135425328</v>
+        <v>0.46972424667905005</v>
       </c>
       <c r="D28">
-        <v>-0.504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2008,13 +2008,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>0.2812722941860451</v>
+        <v>-1.7443166541275496E-2</v>
       </c>
       <c r="D29">
-        <v>-0.40699999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2022,13 +2022,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.36236862199252384</v>
+        <v>0.33303657691258554</v>
       </c>
       <c r="D30">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2036,13 +2036,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.33044058928191561</v>
+        <v>0.30053972935211593</v>
       </c>
       <c r="D31">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2050,13 +2050,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0.45410862469921059</v>
+        <v>0.39418302481662426</v>
       </c>
       <c r="D32">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2064,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.43934292363388344</v>
+        <v>0.38321594665670544</v>
       </c>
       <c r="D33">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2078,13 +2078,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.42127410526064557</v>
+        <v>0.36338077021376869</v>
       </c>
       <c r="D34">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2092,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0.39207036981681381</v>
+        <v>0.36748323771800168</v>
       </c>
       <c r="D35">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2106,13 +2106,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>0.40831492566028066</v>
+        <v>0.37243972373009088</v>
       </c>
       <c r="D36">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2120,13 +2120,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0.43085152132730825</v>
+        <v>0.38574328613795511</v>
       </c>
       <c r="D37">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2134,13 +2134,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0.41451666118182834</v>
+        <v>0.3680111277871923</v>
       </c>
       <c r="D38">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2148,13 +2148,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0.47441702489079862</v>
+        <v>0.45143191291773649</v>
       </c>
       <c r="D39">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2162,13 +2162,13 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>0.29572132623853881</v>
+        <v>0.23553524469254578</v>
       </c>
       <c r="D40">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2176,13 +2176,13 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0.45723818717850329</v>
+        <v>0.41780144064289693</v>
       </c>
       <c r="D41">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>44</v>
       </c>
@@ -2190,13 +2190,13 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0.49887050400729271</v>
+        <v>0.44976243784304587</v>
       </c>
       <c r="D42">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>45</v>
       </c>
@@ -2204,13 +2204,13 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0.4707532510833437</v>
+        <v>0.43884070560006644</v>
       </c>
       <c r="D43">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -2218,13 +2218,13 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0.68732266288734301</v>
+        <v>0.6603592693752649</v>
       </c>
       <c r="D44">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -2232,13 +2232,13 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0.43564285083295101</v>
+        <v>0.41850508612944531</v>
       </c>
       <c r="D45">
-        <v>0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>48</v>
       </c>
@@ -2246,13 +2246,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>0.52391165417779839</v>
+        <v>0.50361004028414647</v>
       </c>
       <c r="D46">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>49</v>
       </c>
@@ -2260,13 +2260,13 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.57718966153638385</v>
+        <v>0.55760141359570548</v>
       </c>
       <c r="D47">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2274,13 +2274,13 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>0.55069001454219602</v>
+        <v>0.50683800774105003</v>
       </c>
       <c r="D48">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>70</v>
       </c>
@@ -2288,13 +2288,13 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>0.3259515056644442</v>
+        <v>0.24082107714890735</v>
       </c>
       <c r="D49">
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>73</v>
       </c>
@@ -2302,13 +2302,13 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.7692155595840402</v>
+        <v>0.75640302954356287</v>
       </c>
       <c r="D50">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>75</v>
       </c>
@@ -2316,13 +2316,13 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>0.39083127054352157</v>
+        <v>0.31293085526391767</v>
       </c>
       <c r="D51">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>76</v>
       </c>
@@ -2330,13 +2330,13 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0.50831796956234976</v>
+        <v>0.46922657098869902</v>
       </c>
       <c r="D52">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>103</v>
       </c>
@@ -2344,13 +2344,13 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>0.38247341374691612</v>
+        <v>0.33775660217288916</v>
       </c>
       <c r="D53">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>104</v>
       </c>
@@ -2358,13 +2358,13 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.44971166849040656</v>
+        <v>0.42897133757610295</v>
       </c>
       <c r="D54">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>105</v>
       </c>
@@ -2372,13 +2372,13 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.44843779839774256</v>
+        <v>0.43098978999928866</v>
       </c>
       <c r="D55">
-        <v>0.317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>106</v>
       </c>
@@ -2386,13 +2386,13 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>0.54797179263132678</v>
+        <v>0.52420861667665042</v>
       </c>
       <c r="D56">
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>107</v>
       </c>
@@ -2400,13 +2400,13 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0.45341709656471618</v>
+        <v>0.43576422691796574</v>
       </c>
       <c r="D57">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>108</v>
       </c>
@@ -2414,13 +2414,13 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>0.38651621874465097</v>
+        <v>0.36400927308008263</v>
       </c>
       <c r="D58">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>109</v>
       </c>
@@ -2428,13 +2428,13 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0.48527374837145587</v>
+        <v>0.45546672628780205</v>
       </c>
       <c r="D59">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>110</v>
       </c>
@@ -2442,13 +2442,13 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0.50046285922113387</v>
+        <v>0.47510767291144779</v>
       </c>
       <c r="D60">
-        <v>0.38600000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>111</v>
       </c>
@@ -2456,13 +2456,13 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0.49445899165574364</v>
+        <v>0.46964509346944483</v>
       </c>
       <c r="D61">
-        <v>0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>112</v>
       </c>
@@ -2470,13 +2470,13 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0.38987750276888417</v>
+        <v>0.33069104200423843</v>
       </c>
       <c r="D62">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>113</v>
       </c>
@@ -2484,13 +2484,13 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>0.37923286116534838</v>
+        <v>0.34549454452414413</v>
       </c>
       <c r="D63">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>114</v>
       </c>
@@ -2498,13 +2498,13 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>0.37773077441748149</v>
+        <v>0.34287865015740498</v>
       </c>
       <c r="D64">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>115</v>
       </c>
@@ -2512,13 +2512,13 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0.37710247903373295</v>
+        <v>0.33886315495985714</v>
       </c>
       <c r="D65">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>116</v>
       </c>
@@ -2526,13 +2526,13 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0.35274263168522668</v>
+        <v>0.32650277385781812</v>
       </c>
       <c r="D66">
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>117</v>
       </c>
@@ -2540,13 +2540,13 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.38443396023686827</v>
+        <v>0.34506081028580698</v>
       </c>
       <c r="D67">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>121</v>
       </c>
@@ -2554,13 +2554,13 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0.53173676227999123</v>
+        <v>0.48971154778957676</v>
       </c>
       <c r="D68">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>122</v>
       </c>
@@ -2568,13 +2568,13 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.65492144864561386</v>
+        <v>0.64818709052446022</v>
       </c>
       <c r="D69">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>123</v>
       </c>
@@ -2582,13 +2582,13 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>0.63648829334733847</v>
+        <v>0.60997474189822398</v>
       </c>
       <c r="D70">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>124</v>
       </c>
@@ -2596,13 +2596,13 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0.64545254363779381</v>
+        <v>0.6328235660763486</v>
       </c>
       <c r="D71">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>125</v>
       </c>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.63608412333441389</v>
+        <v>0.6184412123018862</v>
       </c>
       <c r="D72">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>126</v>
       </c>
@@ -2624,13 +2624,13 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0.63608412333441389</v>
+        <v>0.6184412123018862</v>
       </c>
       <c r="D73">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>127</v>
       </c>
@@ -2638,13 +2638,13 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>0.64059994416449551</v>
+        <v>0.62554973198351704</v>
       </c>
       <c r="D74">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>128</v>
       </c>
@@ -2652,13 +2652,13 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0.63021562849892443</v>
+        <v>0.60511613312709611</v>
       </c>
       <c r="D75">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>129</v>
       </c>
@@ -2666,13 +2666,13 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0.65723633687493699</v>
+        <v>0.64803443161828422</v>
       </c>
       <c r="D76">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>130</v>
       </c>
@@ -2680,13 +2680,13 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0.64490262700793266</v>
+        <v>0.63315954417087883</v>
       </c>
       <c r="D77">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>131</v>
       </c>
@@ -2694,13 +2694,13 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0.65018808642754611</v>
+        <v>0.64149059080470616</v>
       </c>
       <c r="D78">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>132</v>
       </c>
@@ -2708,13 +2708,13 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>0.64899600344088293</v>
+        <v>0.62486187327566345</v>
       </c>
       <c r="D79">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>133</v>
       </c>
@@ -2722,13 +2722,13 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0.63757656320067069</v>
+        <v>0.61157979107291838</v>
       </c>
       <c r="D80">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>134</v>
       </c>
@@ -2736,13 +2736,13 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0.63757656320067069</v>
+        <v>0.61157979107291838</v>
       </c>
       <c r="D81">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>135</v>
       </c>
@@ -2750,13 +2750,13 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>0.65018132622430591</v>
+        <v>0.64650283800479569</v>
       </c>
       <c r="D82">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>136</v>
       </c>
@@ -2764,13 +2764,13 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>0.63744886730417716</v>
+        <v>0.6310254053191503</v>
       </c>
       <c r="D83">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>137</v>
       </c>
@@ -2778,13 +2778,13 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.63258169253643803</v>
+        <v>0.62323496821644475</v>
       </c>
       <c r="D84">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>138</v>
       </c>
@@ -2792,13 +2792,13 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0.65205007043698593</v>
+        <v>0.60577101266141942</v>
       </c>
       <c r="D85">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>139</v>
       </c>
@@ -2806,13 +2806,13 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>0.63258169253643803</v>
+        <v>0.62323496821644475</v>
       </c>
       <c r="D86">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>140</v>
       </c>
@@ -2820,13 +2820,13 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0.63744886730417716</v>
+        <v>0.6310254053191503</v>
       </c>
       <c r="D87">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>141</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>0.63023930874378564</v>
+        <v>0.59827365090535589</v>
       </c>
       <c r="D88">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>142</v>
       </c>
@@ -2848,13 +2848,13 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>0.63097666720993062</v>
+        <v>0.61031798334858023</v>
       </c>
       <c r="D89">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>143</v>
       </c>
@@ -2862,13 +2862,13 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>0.62616018478370616</v>
+        <v>0.6215569041655522</v>
       </c>
       <c r="D90">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>144</v>
       </c>
@@ -2876,13 +2876,13 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>0.62142037542696638</v>
+        <v>0.61424446999889859</v>
       </c>
       <c r="D91">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>145</v>
       </c>
@@ -2890,13 +2890,13 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>0.62592290714493848</v>
+        <v>0.59748706247271655</v>
       </c>
       <c r="D92">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>146</v>
       </c>
@@ -2904,13 +2904,13 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.62592290714493848</v>
+        <v>0.6215569041655522</v>
       </c>
       <c r="D93">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>147</v>
       </c>
@@ -2918,13 +2918,13 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>0.61918822145985053</v>
+        <v>0.59045780291421401</v>
       </c>
       <c r="D94">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>148</v>
       </c>
@@ -2932,13 +2932,13 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>0.61261015637209015</v>
+        <v>0.58359201450823484</v>
       </c>
       <c r="D95">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>149</v>
       </c>
@@ -2946,13 +2946,13 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>0.62026880524403216</v>
+        <v>0.60222111506426246</v>
       </c>
       <c r="D96">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>150</v>
       </c>
@@ -2960,13 +2960,13 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>0.619952443983387</v>
+        <v>0.61999456866989355</v>
       </c>
       <c r="D97">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>151</v>
       </c>
@@ -2974,13 +2974,13 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>0.61544476154563066</v>
+        <v>0.58997341786457447</v>
       </c>
       <c r="D98">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>152</v>
       </c>
@@ -2988,13 +2988,13 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>0.61544476154563066</v>
+        <v>0.61294917584409925</v>
       </c>
       <c r="D99">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>153</v>
       </c>
@@ -3002,13 +3002,13 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>0.6120913302809694</v>
+        <v>0.59482832228292881</v>
       </c>
       <c r="D100">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>154</v>
       </c>
@@ -3016,13 +3016,13 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>0.60609440384252877</v>
+        <v>0.60508994563755536</v>
       </c>
       <c r="D101">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>155</v>
       </c>
@@ -3030,13 +3030,13 @@
         <v>105</v>
       </c>
       <c r="C102">
-        <v>0.60197808110724171</v>
+        <v>0.57684309996190219</v>
       </c>
       <c r="D102">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>156</v>
       </c>
@@ -3044,13 +3044,13 @@
         <v>106</v>
       </c>
       <c r="C103">
-        <v>0.59731562468076371</v>
+        <v>0.5978856512815568</v>
       </c>
       <c r="D103">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>157</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>107</v>
       </c>
       <c r="C104">
-        <v>0.59710800674684195</v>
+        <v>0.57682453980032566</v>
       </c>
       <c r="D104">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>159</v>
       </c>
@@ -3072,13 +3072,13 @@
         <v>108</v>
       </c>
       <c r="C105">
-        <v>0.84370384591842029</v>
+        <v>0.82875120567415406</v>
       </c>
       <c r="D105">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>160</v>
       </c>
@@ -3086,13 +3086,13 @@
         <v>109</v>
       </c>
       <c r="C106">
-        <v>0.5920664095468241</v>
+        <v>0.55935620670773178</v>
       </c>
       <c r="D106">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>161</v>
       </c>
@@ -3100,13 +3100,13 @@
         <v>110</v>
       </c>
       <c r="C107">
-        <v>0.58261743085148465</v>
+        <v>0.54954293992338554</v>
       </c>
       <c r="D107">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>162</v>
       </c>
@@ -3114,13 +3114,13 @@
         <v>111</v>
       </c>
       <c r="C108">
-        <v>0.57579334438763274</v>
+        <v>0.55087825166678861</v>
       </c>
       <c r="D108">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>163</v>
       </c>
@@ -3128,13 +3128,13 @@
         <v>112</v>
       </c>
       <c r="C109">
-        <v>0.56451899186091603</v>
+        <v>0.54346004100596368</v>
       </c>
       <c r="D109">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>164</v>
       </c>
@@ -3142,13 +3142,13 @@
         <v>113</v>
       </c>
       <c r="C110">
-        <v>0.55604533619036356</v>
+        <v>0.53632042148161874</v>
       </c>
       <c r="D110">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>165</v>
       </c>
@@ -3156,13 +3156,13 @@
         <v>114</v>
       </c>
       <c r="C111">
-        <v>0.5703411208913981</v>
+        <v>0.54184746065585765</v>
       </c>
       <c r="D111">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>166</v>
       </c>
@@ -3170,13 +3170,13 @@
         <v>115</v>
       </c>
       <c r="C112">
-        <v>0.60622408579784015</v>
+        <v>0.5767031430293903</v>
       </c>
       <c r="D112">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>167</v>
       </c>
@@ -3184,13 +3184,13 @@
         <v>116</v>
       </c>
       <c r="C113">
-        <v>0.59380433474884531</v>
+        <v>0.56987405344840203</v>
       </c>
       <c r="D113">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>168</v>
       </c>
@@ -3198,13 +3198,13 @@
         <v>117</v>
       </c>
       <c r="C114">
-        <v>0.58464620405670342</v>
+        <v>0.56021517118656472</v>
       </c>
       <c r="D114">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>169</v>
       </c>
@@ -3212,13 +3212,13 @@
         <v>118</v>
       </c>
       <c r="C115">
-        <v>0.56748357134849181</v>
+        <v>0.54346004100596368</v>
       </c>
       <c r="D115">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>171</v>
       </c>
@@ -3226,13 +3226,13 @@
         <v>119</v>
       </c>
       <c r="C116">
-        <v>0.84370384591842029</v>
+        <v>0.82875120567415406</v>
       </c>
       <c r="D116">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>172</v>
       </c>
@@ -3240,13 +3240,13 @@
         <v>120</v>
       </c>
       <c r="C117">
-        <v>0.13861261146277526</v>
+        <v>9.8568050306397662E-2</v>
       </c>
       <c r="D117">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>173</v>
       </c>
@@ -3254,13 +3254,13 @@
         <v>121</v>
       </c>
       <c r="C118">
-        <v>0.13775263179054995</v>
+        <v>9.7572413434615868E-2</v>
       </c>
       <c r="D118">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>174</v>
       </c>
@@ -3268,13 +3268,13 @@
         <v>122</v>
       </c>
       <c r="C119">
-        <v>0.15064958893763522</v>
+        <v>0.11165114170981685</v>
       </c>
       <c r="D119">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>175</v>
       </c>
@@ -3282,13 +3282,13 @@
         <v>123</v>
       </c>
       <c r="C120">
-        <v>0.16360541348077889</v>
+        <v>0.12746665019112047</v>
       </c>
       <c r="D120">
-        <v>0.46800000000000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>176</v>
       </c>
@@ -3296,13 +3296,13 @@
         <v>124</v>
       </c>
       <c r="C121">
-        <v>0.15988559327810811</v>
+        <v>0.1237468299884497</v>
       </c>
       <c r="D121">
-        <v>0.47699999999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>177</v>
       </c>
@@ -3310,13 +3310,13 @@
         <v>125</v>
       </c>
       <c r="C122">
-        <v>0.15064958893763522</v>
+        <v>0.11165114170981685</v>
       </c>
       <c r="D122">
-        <v>0.45700000000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>178</v>
       </c>
@@ -3324,13 +3324,13 @@
         <v>126</v>
       </c>
       <c r="C123">
-        <v>0.13499761159637494</v>
+        <v>9.2702610775888386E-2</v>
       </c>
       <c r="D123">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>179</v>
       </c>
@@ -3338,13 +3338,13 @@
         <v>127</v>
       </c>
       <c r="C124">
-        <v>0.14551906987369981</v>
+        <v>0.10641914695034083</v>
       </c>
       <c r="D124">
-        <v>0.41199999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>180</v>
       </c>
@@ -3352,13 +3352,13 @@
         <v>128</v>
       </c>
       <c r="C125">
-        <v>0.14868285038424156</v>
+        <v>0.11165114170981685</v>
       </c>
       <c r="D125">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>181</v>
       </c>
@@ -3366,13 +3366,13 @@
         <v>129</v>
       </c>
       <c r="C126">
-        <v>0.22618781678047165</v>
+        <v>0.24226153728154956</v>
       </c>
       <c r="D126">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>182</v>
       </c>
@@ -3380,13 +3380,13 @@
         <v>130</v>
       </c>
       <c r="C127">
-        <v>0.22617704167807412</v>
+        <v>0.24337829781596304</v>
       </c>
       <c r="D127">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>183</v>
       </c>
@@ -3394,13 +3394,13 @@
         <v>131</v>
       </c>
       <c r="C128">
-        <v>0.31811327699201919</v>
+        <v>0.32186790280832656</v>
       </c>
       <c r="D128">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>184</v>
       </c>
@@ -3408,13 +3408,13 @@
         <v>132</v>
       </c>
       <c r="C129">
-        <v>0.31565363715471489</v>
+        <v>0.32458678895500398</v>
       </c>
       <c r="D129">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>185</v>
       </c>
@@ -3422,13 +3422,13 @@
         <v>133</v>
       </c>
       <c r="C130">
-        <v>0.20774575858948371</v>
+        <v>0.22444923984518633</v>
       </c>
       <c r="D130">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>186</v>
       </c>
@@ -3436,13 +3436,13 @@
         <v>134</v>
       </c>
       <c r="C131">
-        <v>0.20774575858948371</v>
+        <v>0.22444923984518633</v>
       </c>
       <c r="D131">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>187</v>
       </c>
@@ -3450,13 +3450,13 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <v>0.2023314485889755</v>
+        <v>0.22000026682515303</v>
       </c>
       <c r="D132">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>188</v>
       </c>
@@ -3464,13 +3464,13 @@
         <v>136</v>
       </c>
       <c r="C133">
-        <v>0.34944150287533465</v>
+        <v>0.32450882909642409</v>
       </c>
       <c r="D133">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>189</v>
       </c>
@@ -3478,13 +3478,13 @@
         <v>137</v>
       </c>
       <c r="C134">
-        <v>0.20921862133135313</v>
+        <v>0.22721634864315871</v>
       </c>
       <c r="D134">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>190</v>
       </c>
@@ -3492,13 +3492,13 @@
         <v>138</v>
       </c>
       <c r="C135">
-        <v>0.20921862133135313</v>
+        <v>0.22721634864315871</v>
       </c>
       <c r="D135">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>191</v>
       </c>
@@ -3506,13 +3506,13 @@
         <v>139</v>
       </c>
       <c r="C136">
-        <v>0.2991245058601511</v>
+        <v>0.30460733145847363</v>
       </c>
       <c r="D136">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>192</v>
       </c>
@@ -3520,13 +3520,13 @@
         <v>140</v>
       </c>
       <c r="C137">
-        <v>0.29613166823915121</v>
+        <v>0.30668171897623075</v>
       </c>
       <c r="D137">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>193</v>
       </c>
@@ -3534,13 +3534,13 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0.29613166823915121</v>
+        <v>0.30668171897623075</v>
       </c>
       <c r="D138">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>194</v>
       </c>
@@ -3548,13 +3548,13 @@
         <v>142</v>
       </c>
       <c r="C139">
-        <v>0.3170458513139901</v>
+        <v>0.28779895408383777</v>
       </c>
       <c r="D139">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>195</v>
       </c>
@@ -3562,13 +3562,13 @@
         <v>143</v>
       </c>
       <c r="C140">
-        <v>0.33717913848618702</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D140">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>196</v>
       </c>
@@ -3576,13 +3576,13 @@
         <v>144</v>
       </c>
       <c r="C141">
-        <v>0.19895613326389805</v>
+        <v>0.21775641077832086</v>
       </c>
       <c r="D141">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>197</v>
       </c>
@@ -3590,13 +3590,13 @@
         <v>145</v>
       </c>
       <c r="C142">
-        <v>0.3113556205441862</v>
+        <v>0.31926569405410227</v>
       </c>
       <c r="D142">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>198</v>
       </c>
@@ -3604,13 +3604,13 @@
         <v>146</v>
       </c>
       <c r="C143">
-        <v>0.31565363715471489</v>
+        <v>0.32458678895500392</v>
       </c>
       <c r="D143">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>199</v>
       </c>
@@ -3618,13 +3618,13 @@
         <v>147</v>
       </c>
       <c r="C144">
-        <v>0.31565363715471489</v>
+        <v>0.32458678895500398</v>
       </c>
       <c r="D144">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>200</v>
       </c>
@@ -3632,13 +3632,13 @@
         <v>148</v>
       </c>
       <c r="C145">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D145">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>201</v>
       </c>
@@ -3646,13 +3646,13 @@
         <v>149</v>
       </c>
       <c r="C146">
-        <v>0.33959662533910995</v>
+        <v>0.33557692325645239</v>
       </c>
       <c r="D146">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>202</v>
       </c>
@@ -3660,13 +3660,13 @@
         <v>150</v>
       </c>
       <c r="C147">
-        <v>0.37416359030579227</v>
+        <v>0.339567572001502</v>
       </c>
       <c r="D147">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>203</v>
       </c>
@@ -3674,13 +3674,13 @@
         <v>151</v>
       </c>
       <c r="C148">
-        <v>0.18957643986891232</v>
+        <v>0.20911023100938309</v>
       </c>
       <c r="D148">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>204</v>
       </c>
@@ -3688,13 +3688,13 @@
         <v>152</v>
       </c>
       <c r="C149">
-        <v>0.37095719646602582</v>
+        <v>0.36855365576596172</v>
       </c>
       <c r="D149">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>205</v>
       </c>
@@ -3702,13 +3702,13 @@
         <v>153</v>
       </c>
       <c r="C150">
-        <v>0.33717913848618702</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D150">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>206</v>
       </c>
@@ -3716,13 +3716,13 @@
         <v>154</v>
       </c>
       <c r="C151">
-        <v>0.33237058739171715</v>
+        <v>0.34054879898671514</v>
       </c>
       <c r="D151">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>207</v>
       </c>
@@ -3730,13 +3730,13 @@
         <v>155</v>
       </c>
       <c r="C152">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D152">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3744,13 +3744,13 @@
         <v>156</v>
       </c>
       <c r="C153">
-        <v>0.33777414638594744</v>
+        <v>0.33574730326967761</v>
       </c>
       <c r="D153">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>209</v>
       </c>
@@ -3758,13 +3758,13 @@
         <v>157</v>
       </c>
       <c r="C154">
-        <v>0.33358691876342911</v>
+        <v>0.3030999649890298</v>
       </c>
       <c r="D154">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>210</v>
       </c>
@@ -3772,13 +3772,13 @@
         <v>158</v>
       </c>
       <c r="C155">
-        <v>0.34958300826681776</v>
+        <v>0.34927579688292365</v>
       </c>
       <c r="D155">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>211</v>
       </c>
@@ -3786,13 +3786,13 @@
         <v>159</v>
       </c>
       <c r="C156">
-        <v>0.31826157589016618</v>
+        <v>0.32734613704300253</v>
       </c>
       <c r="D156">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>212</v>
       </c>
@@ -3800,13 +3800,13 @@
         <v>160</v>
       </c>
       <c r="C157">
-        <v>0.28597299920430969</v>
+        <v>0.28829091881663504</v>
       </c>
       <c r="D157">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>213</v>
       </c>
@@ -3814,13 +3814,13 @@
         <v>161</v>
       </c>
       <c r="C158">
-        <v>0.19117901825895245</v>
+        <v>0.16395187854559237</v>
       </c>
       <c r="D158">
-        <v>0.42699999999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>214</v>
       </c>
@@ -3828,13 +3828,13 @@
         <v>162</v>
       </c>
       <c r="C159">
-        <v>6.7621958446117012E-3</v>
+        <v>9.9186793143499243E-3</v>
       </c>
       <c r="D159">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>215</v>
       </c>
@@ -3842,13 +3842,13 @@
         <v>163</v>
       </c>
       <c r="C160">
-        <v>0.15727391974476157</v>
+        <v>0.13106461703003178</v>
       </c>
       <c r="D160">
-        <v>-0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>216</v>
       </c>
@@ -3856,13 +3856,13 @@
         <v>164</v>
       </c>
       <c r="C161">
-        <v>-2.8986586635390155E-2</v>
+        <v>-2.5934449726634997E-2</v>
       </c>
       <c r="D161">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>217</v>
       </c>
@@ -3870,13 +3870,13 @@
         <v>165</v>
       </c>
       <c r="C162">
-        <v>0.3113556205441862</v>
+        <v>0.31926569405410227</v>
       </c>
       <c r="D162">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>218</v>
       </c>
@@ -3884,13 +3884,13 @@
         <v>166</v>
       </c>
       <c r="C163">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D163">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>219</v>
       </c>
@@ -3898,13 +3898,13 @@
         <v>167</v>
       </c>
       <c r="C164">
-        <v>0.33237058739171715</v>
+        <v>0.34054879898671514</v>
       </c>
       <c r="D164">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>220</v>
       </c>
@@ -3912,13 +3912,13 @@
         <v>168</v>
       </c>
       <c r="C165">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D165">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>221</v>
       </c>
@@ -3926,13 +3926,13 @@
         <v>169</v>
       </c>
       <c r="C166">
-        <v>0.33717913848618702</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D166">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>222</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>170</v>
       </c>
       <c r="C167">
-        <v>0.28316145294397171</v>
+        <v>0.27905041619517817</v>
       </c>
       <c r="D167">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>223</v>
       </c>
@@ -3954,13 +3954,13 @@
         <v>171</v>
       </c>
       <c r="C168">
-        <v>0.28614439877554965</v>
+        <v>0.28267444757433635</v>
       </c>
       <c r="D168">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>224</v>
       </c>
@@ -3968,13 +3968,13 @@
         <v>172</v>
       </c>
       <c r="C169">
-        <v>0.33717913848618702</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D169">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>225</v>
       </c>
@@ -3982,13 +3982,13 @@
         <v>173</v>
       </c>
       <c r="C170">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D170">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>226</v>
       </c>
@@ -3996,13 +3996,13 @@
         <v>174</v>
       </c>
       <c r="C171">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D171">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>227</v>
       </c>
@@ -4010,13 +4010,13 @@
         <v>175</v>
       </c>
       <c r="C172">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D172">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>228</v>
       </c>
@@ -4024,13 +4024,13 @@
         <v>176</v>
       </c>
       <c r="C173">
-        <v>0.27843743090409367</v>
+        <v>0.28025013643016838</v>
       </c>
       <c r="D173">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>229</v>
       </c>
@@ -4038,13 +4038,13 @@
         <v>177</v>
       </c>
       <c r="C174">
-        <v>0.35427741067089802</v>
+        <v>0.36146939111699428</v>
       </c>
       <c r="D174">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>230</v>
       </c>
@@ -4052,13 +4052,13 @@
         <v>178</v>
       </c>
       <c r="C175">
-        <v>0.3587009810644044</v>
+        <v>0.36678511745695008</v>
       </c>
       <c r="D175">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>231</v>
       </c>
@@ -4066,13 +4066,13 @@
         <v>179</v>
       </c>
       <c r="C176">
-        <v>0.36439813099377866</v>
+        <v>0.37059180124238511</v>
       </c>
       <c r="D176">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>232</v>
       </c>
@@ -4080,13 +4080,13 @@
         <v>180</v>
       </c>
       <c r="C177">
-        <v>0.36365222355807286</v>
+        <v>0.37215998717739579</v>
       </c>
       <c r="D177">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>233</v>
       </c>
@@ -4094,13 +4094,13 @@
         <v>181</v>
       </c>
       <c r="C178">
-        <v>0.31565363715471489</v>
+        <v>0.32458678895500392</v>
       </c>
       <c r="D178">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>234</v>
       </c>
@@ -4108,13 +4108,13 @@
         <v>182</v>
       </c>
       <c r="C179">
-        <v>0.28614439877554965</v>
+        <v>0.28267444757433635</v>
       </c>
       <c r="D179">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>235</v>
       </c>
@@ -4122,13 +4122,13 @@
         <v>183</v>
       </c>
       <c r="C180">
-        <v>0.2838116908678579</v>
+        <v>0.28029608241399712</v>
       </c>
       <c r="D180">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>236</v>
       </c>
@@ -4136,13 +4136,13 @@
         <v>184</v>
       </c>
       <c r="C181">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D181">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>237</v>
       </c>
@@ -4150,13 +4150,13 @@
         <v>185</v>
       </c>
       <c r="C182">
-        <v>0.34256876741851522</v>
+        <v>0.32345197566814432</v>
       </c>
       <c r="D182">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>238</v>
       </c>
@@ -4164,13 +4164,13 @@
         <v>186</v>
       </c>
       <c r="C183">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D183">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>239</v>
       </c>
@@ -4178,13 +4178,13 @@
         <v>187</v>
       </c>
       <c r="C184">
-        <v>0.33717913848618697</v>
+        <v>0.34642033000372746</v>
       </c>
       <c r="D184">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>240</v>
       </c>
@@ -4192,13 +4192,13 @@
         <v>188</v>
       </c>
       <c r="C185">
-        <v>0.47306720263172269</v>
+        <v>0.44893039528860706</v>
       </c>
       <c r="D185">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>245</v>
       </c>
@@ -4206,13 +4206,13 @@
         <v>189</v>
       </c>
       <c r="C186">
-        <v>0.33652394263602231</v>
+        <v>0.2986128193327065</v>
       </c>
       <c r="D186">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>247</v>
       </c>
@@ -4220,13 +4220,13 @@
         <v>190</v>
       </c>
       <c r="C187">
-        <v>0.40909199707241817</v>
+        <v>0.38110141106474332</v>
       </c>
       <c r="D187">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>248</v>
       </c>
@@ -4234,13 +4234,13 @@
         <v>191</v>
       </c>
       <c r="C188">
-        <v>0.3946667256373011</v>
+        <v>0.35133000284006782</v>
       </c>
       <c r="D188">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>252</v>
       </c>
@@ -4248,13 +4248,13 @@
         <v>192</v>
       </c>
       <c r="C189">
-        <v>0.17941334341578821</v>
+        <v>0.1486596330048712</v>
       </c>
       <c r="D189">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>254</v>
       </c>
@@ -4262,13 +4262,13 @@
         <v>193</v>
       </c>
       <c r="C190">
-        <v>0.17643645566043595</v>
+        <v>0.16917046311993975</v>
       </c>
       <c r="D190">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>255</v>
       </c>
@@ -4276,13 +4276,13 @@
         <v>194</v>
       </c>
       <c r="C191">
-        <v>2.8732423485489517E-2</v>
+        <v>-4.8151852541802986E-2</v>
       </c>
       <c r="D191">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>256</v>
       </c>
@@ -4290,13 +4290,13 @@
         <v>195</v>
       </c>
       <c r="C192">
-        <v>-4.4019957144531399E-2</v>
+        <v>-4.4595332535437494E-2</v>
       </c>
       <c r="D192">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>257</v>
       </c>
@@ -4304,13 +4304,13 @@
         <v>196</v>
       </c>
       <c r="C193">
-        <v>0.34867479032757587</v>
+        <v>0.2753700358120571</v>
       </c>
       <c r="D193">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>259</v>
       </c>
@@ -4318,13 +4318,13 @@
         <v>197</v>
       </c>
       <c r="C194">
-        <v>0.35331033307807219</v>
+        <v>0.29585208632022919</v>
       </c>
       <c r="D194">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>260</v>
       </c>
@@ -4332,13 +4332,13 @@
         <v>198</v>
       </c>
       <c r="C195">
-        <v>0.21652014081483614</v>
+        <v>0.10564976253366815</v>
       </c>
       <c r="D195">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>261</v>
       </c>
@@ -4346,13 +4346,13 @@
         <v>199</v>
       </c>
       <c r="C196">
-        <v>0.38476756700290021</v>
+        <v>0.32954070846866262</v>
       </c>
       <c r="D196">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>263</v>
       </c>
@@ -4360,13 +4360,13 @@
         <v>200</v>
       </c>
       <c r="C197">
-        <v>0.89663179370903578</v>
+        <v>0.90321994048086673</v>
       </c>
       <c r="D197">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>264</v>
       </c>
@@ -4374,13 +4374,13 @@
         <v>201</v>
       </c>
       <c r="C198">
-        <v>-0.10016458440216673</v>
+        <v>-0.12631635060010488</v>
       </c>
       <c r="D198">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>265</v>
       </c>
@@ -4388,13 +4388,13 @@
         <v>202</v>
       </c>
       <c r="C199">
-        <v>0.30603917897565702</v>
+        <v>0.24599387484252991</v>
       </c>
       <c r="D199">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>266</v>
       </c>
@@ -4402,13 +4402,13 @@
         <v>203</v>
       </c>
       <c r="C200">
-        <v>0.24245538748665924</v>
+        <v>0.22351867590289781</v>
       </c>
       <c r="D200">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>267</v>
       </c>
@@ -4416,13 +4416,13 @@
         <v>204</v>
       </c>
       <c r="C201">
-        <v>0.37283884127322919</v>
+        <v>0.3027212499975156</v>
       </c>
       <c r="D201">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>268</v>
       </c>
@@ -4430,13 +4430,13 @@
         <v>205</v>
       </c>
       <c r="C202">
-        <v>0.34254321204063681</v>
+        <v>0.28565954775037222</v>
       </c>
       <c r="D202">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>269</v>
       </c>
@@ -4444,13 +4444,13 @@
         <v>206</v>
       </c>
       <c r="C203">
-        <v>0.3022460608537757</v>
+        <v>0.20017813134696688</v>
       </c>
       <c r="D203">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>272</v>
       </c>
@@ -4458,13 +4458,13 @@
         <v>207</v>
       </c>
       <c r="C204">
-        <v>0.54779684086262892</v>
+        <v>0.514661473233478</v>
       </c>
       <c r="D204">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>277</v>
       </c>
@@ -4472,13 +4472,13 @@
         <v>208</v>
       </c>
       <c r="C205">
-        <v>0.42774159877366102</v>
+        <v>0.38900478727726673</v>
       </c>
       <c r="D205">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>306</v>
       </c>
@@ -4486,13 +4486,13 @@
         <v>209</v>
       </c>
       <c r="C206">
-        <v>0.44398501386303396</v>
+        <v>0.40323662847666275</v>
       </c>
       <c r="D206">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>307</v>
       </c>
@@ -4500,13 +4500,13 @@
         <v>210</v>
       </c>
       <c r="C207">
-        <v>0.38934116871246172</v>
+        <v>0.3417304802088687</v>
       </c>
       <c r="D207">
         <v>0.01</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>308</v>
       </c>
@@ -4514,13 +4514,13 @@
         <v>211</v>
       </c>
       <c r="C208">
-        <v>0.43546004687442835</v>
+        <v>0.39753550656680742</v>
       </c>
       <c r="D208">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>309</v>
       </c>
@@ -4528,13 +4528,13 @@
         <v>212</v>
       </c>
       <c r="C209">
-        <v>0.45985588917964038</v>
+        <v>0.44481707437149842</v>
       </c>
       <c r="D209">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>321</v>
       </c>
@@ -4542,13 +4542,13 @@
         <v>213</v>
       </c>
       <c r="C210">
-        <v>0.42810138266487041</v>
+        <v>0.39706696565483046</v>
       </c>
       <c r="D210">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>322</v>
       </c>
@@ -4556,13 +4556,13 @@
         <v>214</v>
       </c>
       <c r="C211">
-        <v>0.42810138266487041</v>
+        <v>0.39706696565483046</v>
       </c>
       <c r="D211">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>323</v>
       </c>
@@ -4570,13 +4570,13 @@
         <v>215</v>
       </c>
       <c r="C212">
-        <v>0.42482027764646696</v>
+        <v>0.39378586063642701</v>
       </c>
       <c r="D212">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -4584,13 +4584,13 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>0.43547837046277427</v>
+        <v>0.38574328613795511</v>
       </c>
       <c r="D213">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -4598,13 +4598,13 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>0.23436500512919975</v>
+        <v>0.26170775866675572</v>
       </c>
       <c r="D214">
-        <v>9.7000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -4612,13 +4612,13 @@
         <v>221</v>
       </c>
       <c r="C215">
-        <v>0.45321853468869627</v>
+        <v>0.44082843040845576</v>
       </c>
       <c r="D215">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -4626,13 +4626,13 @@
         <v>223</v>
       </c>
       <c r="C216">
-        <v>0.29883146405855504</v>
+        <v>0.2685814292144646</v>
       </c>
       <c r="D216">
-        <v>-0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -4640,13 +4640,13 @@
         <v>225</v>
       </c>
       <c r="C217">
-        <v>0.46482477630273766</v>
+        <v>0.44389060045815526</v>
       </c>
       <c r="D217">
-        <v>0.41799999999999998</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -4654,13 +4654,13 @@
         <v>227</v>
       </c>
       <c r="C218">
-        <v>0.13354890286941282</v>
+        <v>0.11030615730598592</v>
       </c>
       <c r="D218">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -4668,13 +4668,13 @@
         <v>229</v>
       </c>
       <c r="C219">
-        <v>9.1797110560063733E-2</v>
+        <v>6.2027563631928205E-2</v>
       </c>
       <c r="D219">
-        <v>-0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -4682,13 +4682,13 @@
         <v>231</v>
       </c>
       <c r="C220">
-        <v>0.18866559273022829</v>
+        <v>0.1884056588222883</v>
       </c>
       <c r="D220">
-        <v>0.38900000000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -4696,13 +4696,13 @@
         <v>233</v>
       </c>
       <c r="C221">
-        <v>0.44566780495646613</v>
+        <v>0.32370661490625785</v>
       </c>
       <c r="D221">
-        <v>0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -4710,13 +4710,13 @@
         <v>235</v>
       </c>
       <c r="C222">
-        <v>1.3218824762315553</v>
+        <v>1.2623175617725977</v>
       </c>
       <c r="D222">
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -4727,10 +4727,10 @@
         <v>-0.78832584904971281</v>
       </c>
       <c r="D223">
-        <v>-3.9E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -4738,13 +4738,13 @@
         <v>239</v>
       </c>
       <c r="C224">
-        <v>0.29853711413264455</v>
+        <v>0.2741280610457712</v>
       </c>
       <c r="D224">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -4752,13 +4752,13 @@
         <v>241</v>
       </c>
       <c r="C225">
-        <v>0.2521443475040977</v>
+        <v>0.20752466546855267</v>
       </c>
       <c r="D225">
-        <v>0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -4769,10 +4769,10 @@
         <v>0.77601720571205324</v>
       </c>
       <c r="D226">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>244</v>
       </c>
@@ -4783,10 +4783,10 @@
         <v>0.39449234696233931</v>
       </c>
       <c r="D227">
-        <v>0.14899999999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -4794,13 +4794,13 @@
         <v>247</v>
       </c>
       <c r="C228">
-        <v>1.3770440999603215</v>
+        <v>1.3034915426483913</v>
       </c>
       <c r="D228">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -4808,13 +4808,13 @@
         <v>249</v>
       </c>
       <c r="C229">
-        <v>0.4479068170485197</v>
+        <v>0.42757286250235699</v>
       </c>
       <c r="D229">
-        <v>0.30399999999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -4822,13 +4822,13 @@
         <v>251</v>
       </c>
       <c r="C230">
-        <v>0.52096623108352025</v>
+        <v>0.5011157641652827</v>
       </c>
       <c r="D230">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -4836,13 +4836,13 @@
         <v>253</v>
       </c>
       <c r="C231">
-        <v>0.3685371347766494</v>
+        <v>0.33111500178980757</v>
       </c>
       <c r="D231">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -4850,13 +4850,13 @@
         <v>255</v>
       </c>
       <c r="C232">
-        <v>0.34944150287533465</v>
+        <v>0.32450882909642409</v>
       </c>
       <c r="D232">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -4864,13 +4864,13 @@
         <v>257</v>
       </c>
       <c r="C233">
-        <v>0.73450463055243043</v>
+        <v>0.45057483120319869</v>
       </c>
       <c r="D233">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -4878,13 +4878,13 @@
         <v>259</v>
       </c>
       <c r="C234">
-        <v>-0.10215376920495829</v>
+        <v>-0.12883044175819788</v>
       </c>
       <c r="D234">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4892,13 +4892,13 @@
         <v>261</v>
       </c>
       <c r="C235">
-        <v>0.28537812331432966</v>
+        <v>1.314173229180334E-2</v>
       </c>
       <c r="D235">
-        <v>-0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -4906,13 +4906,13 @@
         <v>263</v>
       </c>
       <c r="C236">
-        <v>0.51786621863013294</v>
+        <v>0.50129617593609632</v>
       </c>
       <c r="D236">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -4920,13 +4920,13 @@
         <v>265</v>
       </c>
       <c r="C237">
-        <v>0.53856611118389441</v>
+        <v>0.50138439362705189</v>
       </c>
       <c r="D237">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4934,13 +4934,13 @@
         <v>267</v>
       </c>
       <c r="C238">
-        <v>0.49014158412165332</v>
+        <v>0.41504354675767158</v>
       </c>
       <c r="D238">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -4948,13 +4948,13 @@
         <v>269</v>
       </c>
       <c r="C239">
-        <v>0.46660415931788352</v>
+        <v>0.41973317048557574</v>
       </c>
       <c r="D239">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>270</v>
       </c>
@@ -4962,13 +4962,13 @@
         <v>271</v>
       </c>
       <c r="C240">
-        <v>0.41401892658134121</v>
+        <v>0.35809338837600929</v>
       </c>
       <c r="D240">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>272</v>
       </c>
@@ -4976,13 +4976,13 @@
         <v>273</v>
       </c>
       <c r="C241">
-        <v>0.45853203810116311</v>
+        <v>0.41068891496730892</v>
       </c>
       <c r="D241">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>274</v>
       </c>
@@ -4990,13 +4990,13 @@
         <v>275</v>
       </c>
       <c r="C242">
-        <v>0.33090030922064811</v>
+        <v>0.27581741495198775</v>
       </c>
       <c r="D242">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -5004,13 +5004,13 @@
         <v>277</v>
       </c>
       <c r="C243">
-        <v>0.24219207301069315</v>
+        <v>0.16285980636827366</v>
       </c>
       <c r="D243">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -5018,13 +5018,13 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>0.30370938955222315</v>
+        <v>0.23075383834609642</v>
       </c>
       <c r="D244">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -5032,13 +5032,13 @@
         <v>281</v>
       </c>
       <c r="C245">
-        <v>0.23723162277478019</v>
+        <v>0.16698599005491971</v>
       </c>
       <c r="D245">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>282</v>
       </c>
@@ -5046,13 +5046,13 @@
         <v>283</v>
       </c>
       <c r="C246">
-        <v>0.24397675417795672</v>
+        <v>0.17604854068542375</v>
       </c>
       <c r="D246">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>284</v>
       </c>
@@ -5060,13 +5060,13 @@
         <v>285</v>
       </c>
       <c r="C247">
-        <v>0.31795899217908086</v>
+        <v>0.27122199098142968</v>
       </c>
       <c r="D247">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -5074,13 +5074,13 @@
         <v>287</v>
       </c>
       <c r="C248">
-        <v>0.35778161197183889</v>
+        <v>0.31817366783778994</v>
       </c>
       <c r="D248">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -5088,13 +5088,13 @@
         <v>289</v>
       </c>
       <c r="C249">
-        <v>0.22824864780523635</v>
+        <v>0.17810255744829714</v>
       </c>
       <c r="D249">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>290</v>
       </c>
@@ -5102,13 +5102,13 @@
         <v>291</v>
       </c>
       <c r="C250">
-        <v>0.18092548960877036</v>
+        <v>0.14026096833315632</v>
       </c>
       <c r="D250">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -5116,13 +5116,13 @@
         <v>293</v>
       </c>
       <c r="C251">
-        <v>0.27790233264743897</v>
+        <v>0.21344341935216457</v>
       </c>
       <c r="D251">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -5130,13 +5130,13 @@
         <v>295</v>
       </c>
       <c r="C252">
-        <v>0.16579810364534672</v>
+        <v>7.3338048842815279E-2</v>
       </c>
       <c r="D252">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>296</v>
       </c>
@@ -5144,13 +5144,13 @@
         <v>297</v>
       </c>
       <c r="C253">
-        <v>0.2479236265950048</v>
+        <v>0.20871335302307703</v>
       </c>
       <c r="D253">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -5158,13 +5158,13 @@
         <v>299</v>
       </c>
       <c r="C254">
-        <v>0.38096069159413137</v>
+        <v>0.32864627739787344</v>
       </c>
       <c r="D254">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -5172,13 +5172,13 @@
         <v>301</v>
       </c>
       <c r="C255">
-        <v>0.39494383815746276</v>
+        <v>0.33986094388880239</v>
       </c>
       <c r="D255">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -5186,13 +5186,13 @@
         <v>303</v>
       </c>
       <c r="C256">
-        <v>0.38806832249312856</v>
+        <v>0.3407515689078095</v>
       </c>
       <c r="D256">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -5200,13 +5200,13 @@
         <v>305</v>
       </c>
       <c r="C257">
-        <v>0.20966825913768783</v>
+        <v>0.1911087938847037</v>
       </c>
       <c r="D257">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>306</v>
       </c>
@@ -5214,13 +5214,13 @@
         <v>307</v>
       </c>
       <c r="C258">
-        <v>0.23536934702829659</v>
+        <v>0.19429191757199132</v>
       </c>
       <c r="D258">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>308</v>
       </c>
@@ -5228,13 +5228,13 @@
         <v>309</v>
       </c>
       <c r="C259">
-        <v>0.20537850186343656</v>
+        <v>0.1593780891433404</v>
       </c>
       <c r="D259">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>310</v>
       </c>
@@ -5242,13 +5242,13 @@
         <v>311</v>
       </c>
       <c r="C260">
-        <v>0.30684575766760003</v>
+        <v>0.23517504880515078</v>
       </c>
       <c r="D260">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>312</v>
       </c>
@@ -5256,13 +5256,13 @@
         <v>313</v>
       </c>
       <c r="C261">
-        <v>0.34079151525104512</v>
+        <v>0.29500889455202117</v>
       </c>
       <c r="D261">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -5270,13 +5270,13 @@
         <v>315</v>
       </c>
       <c r="C262">
-        <v>0.58835341435597499</v>
+        <v>0.56871202174168678</v>
       </c>
       <c r="D262">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -5284,13 +5284,13 @@
         <v>317</v>
       </c>
       <c r="C263">
-        <v>-9.4401411752612213E-2</v>
+        <v>-0.13010091274565785</v>
       </c>
       <c r="D263">
-        <v>-0.216</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.254</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>318</v>
       </c>
@@ -5298,13 +5298,13 @@
         <v>319</v>
       </c>
       <c r="C264">
-        <v>0.86494584766854499</v>
+        <v>0.87071047609389707</v>
       </c>
       <c r="D264">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -5312,13 +5312,13 @@
         <v>321</v>
       </c>
       <c r="C265">
-        <v>0.32844904077766279</v>
+        <v>0.31136364610493117</v>
       </c>
       <c r="D265">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -5326,13 +5326,13 @@
         <v>323</v>
       </c>
       <c r="C266">
-        <v>2.1501899176946507E-2</v>
+        <v>3.7614729670547575E-3</v>
       </c>
       <c r="D266">
-        <v>-0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>324</v>
       </c>
@@ -5340,13 +5340,13 @@
         <v>325</v>
       </c>
       <c r="C267">
-        <v>0.6046446927530118</v>
+        <v>0.5562258884846476</v>
       </c>
       <c r="D267">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>326</v>
       </c>
@@ -5354,13 +5354,13 @@
         <v>327</v>
       </c>
       <c r="C268">
-        <v>0.19443998405298912</v>
+        <v>0.1081826874527642</v>
       </c>
       <c r="D268">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>328</v>
       </c>
@@ -5368,13 +5368,13 @@
         <v>329</v>
       </c>
       <c r="C269">
-        <v>0.35855927757901473</v>
+        <v>0.28935180827527457</v>
       </c>
       <c r="D269">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -5382,13 +5382,13 @@
         <v>331</v>
       </c>
       <c r="C270">
-        <v>1.3392299627688724</v>
+        <v>1.3003472327936869</v>
       </c>
       <c r="D270">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -5396,13 +5396,13 @@
         <v>333</v>
       </c>
       <c r="C271">
-        <v>0.44284781361885744</v>
+        <v>0.45461893086058014</v>
       </c>
       <c r="D271">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -5410,13 +5410,13 @@
         <v>335</v>
       </c>
       <c r="C272">
-        <v>4.5248822220655946E-2</v>
+        <v>2.0415095386998573E-2</v>
       </c>
       <c r="D272">
-        <v>-0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -5424,13 +5424,13 @@
         <v>337</v>
       </c>
       <c r="C273">
-        <v>-0.26891431390237802</v>
+        <v>-0.25147961077613762</v>
       </c>
       <c r="D273">
-        <v>0.46600000000000003</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -5438,13 +5438,13 @@
         <v>339</v>
       </c>
       <c r="C274">
-        <v>7.5707949238016159E-2</v>
+        <v>2.3233702385792091E-2</v>
       </c>
       <c r="D274">
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -5452,13 +5452,13 @@
         <v>341</v>
       </c>
       <c r="C275">
-        <v>0.18131379874821091</v>
+        <v>0.13591450122232501</v>
       </c>
       <c r="D275">
-        <v>-0.41699999999999998</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5466,13 +5466,13 @@
         <v>343</v>
       </c>
       <c r="C276">
-        <v>0.1539794473260587</v>
+        <v>0.11981997526473812</v>
       </c>
       <c r="D276">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>344</v>
       </c>
@@ -5480,13 +5480,13 @@
         <v>345</v>
       </c>
       <c r="C277">
-        <v>0.40559971361505498</v>
+        <v>0.36573245923020054</v>
       </c>
       <c r="D277">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>346</v>
       </c>
@@ -5494,13 +5494,13 @@
         <v>347</v>
       </c>
       <c r="C278">
-        <v>-0.42534345220656017</v>
+        <v>-0.42548383343102275</v>
       </c>
       <c r="D278">
-        <v>-2.7E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -5508,13 +5508,13 @@
         <v>349</v>
       </c>
       <c r="C279">
-        <v>0.85173383290336901</v>
+        <v>0.72983555264880884</v>
       </c>
       <c r="D279">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>350</v>
       </c>
@@ -5522,13 +5522,13 @@
         <v>351</v>
       </c>
       <c r="C280">
-        <v>0.12640037191486334</v>
+        <v>0.13475215361577544</v>
       </c>
       <c r="D280">
-        <v>-0.47599999999999998</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>352</v>
       </c>
@@ -5536,13 +5536,13 @@
         <v>353</v>
       </c>
       <c r="C281">
-        <v>0.1118012079081156</v>
+        <v>-9.7417270920051188E-2</v>
       </c>
       <c r="D281">
-        <v>-0.126</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>354</v>
       </c>
@@ -5550,13 +5550,13 @@
         <v>355</v>
       </c>
       <c r="C282">
-        <v>8.2956299261440353E-2</v>
+        <v>-0.10169000173013962</v>
       </c>
       <c r="D282">
-        <v>-0.51</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>356</v>
       </c>
@@ -5564,13 +5564,13 @@
         <v>357</v>
       </c>
       <c r="C283">
-        <v>0.5841282327153402</v>
+        <v>0.46862524975707925</v>
       </c>
       <c r="D283">
-        <v>-0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>358</v>
       </c>
@@ -5578,13 +5578,13 @@
         <v>359</v>
       </c>
       <c r="C284">
-        <v>0.17013765314618495</v>
+        <v>3.7167114036461432E-2</v>
       </c>
       <c r="D284">
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>360</v>
       </c>
@@ -5592,13 +5592,13 @@
         <v>361</v>
       </c>
       <c r="C285">
-        <v>0.10479018215737293</v>
+        <v>6.9304797457253528E-2</v>
       </c>
       <c r="D285">
-        <v>-0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>362</v>
       </c>
@@ -5606,13 +5606,13 @@
         <v>363</v>
       </c>
       <c r="C286">
-        <v>0.64022377426767541</v>
+        <v>0.59448856684641838</v>
       </c>
       <c r="D286">
-        <v>-0.58499999999999996</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>364</v>
       </c>
@@ -5620,13 +5620,13 @@
         <v>365</v>
       </c>
       <c r="C287">
-        <v>0.26301323717863917</v>
+        <v>0.23864773526012592</v>
       </c>
       <c r="D287">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>366</v>
       </c>
@@ -5634,13 +5634,13 @@
         <v>367</v>
       </c>
       <c r="C288">
-        <v>0.29204348569199789</v>
+        <v>0.16611031372343771</v>
       </c>
       <c r="D288">
-        <v>-0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>368</v>
       </c>
@@ -5648,13 +5648,13 @@
         <v>369</v>
       </c>
       <c r="C289">
-        <v>-3.0100409487427135E-2</v>
+        <v>-0.11887779096220824</v>
       </c>
       <c r="D289">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -5662,13 +5662,13 @@
         <v>371</v>
       </c>
       <c r="C290">
-        <v>1.0677990553459498</v>
+        <v>0.76760213279929446</v>
       </c>
       <c r="D290">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -5676,13 +5676,13 @@
         <v>373</v>
       </c>
       <c r="C291">
-        <v>0.31624386931887388</v>
+        <v>0.10592000622994802</v>
       </c>
       <c r="D291">
-        <v>0.437</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -5690,13 +5690,13 @@
         <v>375</v>
       </c>
       <c r="C292">
-        <v>0.23910280327541195</v>
+        <v>0.26394580578965199</v>
       </c>
       <c r="D292">
-        <v>-0.26900000000000002</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>376</v>
       </c>
@@ -5704,13 +5704,13 @@
         <v>377</v>
       </c>
       <c r="C293">
-        <v>2.5232129810133296E-2</v>
+        <v>4.1787533238318124E-2</v>
       </c>
       <c r="D293">
-        <v>-0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.376</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -5718,13 +5718,13 @@
         <v>379</v>
       </c>
       <c r="C294">
-        <v>0.33933073163294236</v>
+        <v>0.32541059617094459</v>
       </c>
       <c r="D294">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -5732,13 +5732,13 @@
         <v>381</v>
       </c>
       <c r="C295">
-        <v>8.4868379552277592E-2</v>
+        <v>0.1149741767022705</v>
       </c>
       <c r="D295">
-        <v>-0.47599999999999998</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -5746,13 +5746,13 @@
         <v>383</v>
       </c>
       <c r="C296">
-        <v>4.6971111030551897E-2</v>
+        <v>8.1722958489853156E-3</v>
       </c>
       <c r="D296">
-        <v>-0.112</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>384</v>
       </c>
@@ -5760,13 +5760,13 @@
         <v>385</v>
       </c>
       <c r="C297">
-        <v>0.40741342396983266</v>
+        <v>0.34990670977638433</v>
       </c>
       <c r="D297">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>386</v>
       </c>
@@ -5774,13 +5774,13 @@
         <v>387</v>
       </c>
       <c r="C298">
-        <v>0.41468848477335507</v>
+        <v>0.11303025084634691</v>
       </c>
       <c r="D298">
-        <v>-0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.154</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>388</v>
       </c>
@@ -5788,13 +5788,13 @@
         <v>389</v>
       </c>
       <c r="C299">
-        <v>0.39130733093479547</v>
+        <v>-4.5397733058689833E-2</v>
       </c>
       <c r="D299">
-        <v>-0.22700000000000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>390</v>
       </c>
@@ -5802,13 +5802,13 @@
         <v>391</v>
       </c>
       <c r="C300">
-        <v>-0.16012773854704659</v>
+        <v>-9.9332806925804984E-2</v>
       </c>
       <c r="D300">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.108</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -5816,13 +5816,13 @@
         <v>393</v>
       </c>
       <c r="C301">
-        <v>0.35120824207580914</v>
+        <v>-9.6048503244333838E-2</v>
       </c>
       <c r="D301">
-        <v>-0.41199999999999998</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -5830,13 +5830,13 @@
         <v>395</v>
       </c>
       <c r="C302">
-        <v>0.60663739878708645</v>
+        <v>0.58737299913476781</v>
       </c>
       <c r="D302">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>396</v>
       </c>
@@ -5844,13 +5844,13 @@
         <v>397</v>
       </c>
       <c r="C303">
-        <v>4.6182207534235013E-2</v>
+        <v>3.171566879147434E-2</v>
       </c>
       <c r="D303">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>398</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>399</v>
       </c>
       <c r="C304">
-        <v>0.62933561616045131</v>
+        <v>0.64580865841146451</v>
       </c>
       <c r="D304">
-        <v>0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>400</v>
       </c>
@@ -5872,13 +5872,13 @@
         <v>401</v>
       </c>
       <c r="C305">
-        <v>0.1671381436504118</v>
+        <v>2.0559325007661472E-3</v>
       </c>
       <c r="D305">
-        <v>-0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>402</v>
       </c>
@@ -5886,13 +5886,13 @@
         <v>403</v>
       </c>
       <c r="C306">
-        <v>0.23433850185279864</v>
+        <v>0.20057920183242242</v>
       </c>
       <c r="D306">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>404</v>
       </c>
@@ -5903,10 +5903,10 @@
         <v>1.09860992643195</v>
       </c>
       <c r="D307">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>406</v>
       </c>
@@ -5914,10 +5914,10 @@
         <v>407</v>
       </c>
       <c r="C308">
-        <v>-1.1567150393111202E-2</v>
+        <v>-1.6765753949896114E-2</v>
       </c>
       <c r="D308">
-        <v>-0.29299999999999998</v>
+        <v>-0.34300000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/TIDEs/Dox6hrs.xlsx
+++ b/data/TIDEs/Dox6hrs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvd5nq\Documents\Cardiotoxicity\data\TIDEs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539E1A78-8244-4BB2-992F-13F31BE5FDEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAE858A-8926-4ABD-966F-3E399247C6B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="7290" xr2:uid="{086DFBD6-A60D-48D5-8192-4A765A5DC374}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15948" windowHeight="7296" xr2:uid="{086DFBD6-A60D-48D5-8192-4A765A5DC374}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1606,9 +1606,9 @@
       <selection sqref="A1:D308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1633,10 +1633,10 @@
         <v>0.53253137649541693</v>
       </c>
       <c r="D2">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1661,10 +1661,10 @@
         <v>0.30067389279645523</v>
       </c>
       <c r="D4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>262</v>
       </c>
@@ -1675,10 +1675,10 @@
         <v>0.3099783322218016</v>
       </c>
       <c r="D5">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>310</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1759,10 +1759,10 @@
         <v>0.5145345249331883</v>
       </c>
       <c r="D11">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1815,10 +1815,10 @@
         <v>1.0859829275034159</v>
       </c>
       <c r="D15">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1941,10 +1941,10 @@
         <v>0.28280239749824987</v>
       </c>
       <c r="D24">
-        <v>0.371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1955,10 +1955,10 @@
         <v>-7.8074385701991628E-2</v>
       </c>
       <c r="D25">
-        <v>-0.20200000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1969,10 +1969,10 @@
         <v>0.33630470567541937</v>
       </c>
       <c r="D26">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1997,10 +1997,10 @@
         <v>0.46972424667905005</v>
       </c>
       <c r="D28">
-        <v>0.45900000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.46100000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>30</v>
       </c>
@@ -2011,10 +2011,10 @@
         <v>-1.7443166541275496E-2</v>
       </c>
       <c r="D29">
-        <v>-0.246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31</v>
       </c>
@@ -2025,10 +2025,10 @@
         <v>0.33303657691258554</v>
       </c>
       <c r="D30">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>32</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>34</v>
       </c>
@@ -2067,10 +2067,10 @@
         <v>0.38321594665670544</v>
       </c>
       <c r="D33">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>35</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>37</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>38</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>39</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41</v>
       </c>
@@ -2165,10 +2165,10 @@
         <v>0.23553524469254578</v>
       </c>
       <c r="D40">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>42</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>44</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>46</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>47</v>
       </c>
@@ -2235,10 +2235,10 @@
         <v>0.41850508612944531</v>
       </c>
       <c r="D45">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>48</v>
       </c>
@@ -2249,10 +2249,10 @@
         <v>0.50361004028414647</v>
       </c>
       <c r="D46">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -2263,10 +2263,10 @@
         <v>0.55760141359570548</v>
       </c>
       <c r="D47">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50</v>
       </c>
@@ -2277,10 +2277,10 @@
         <v>0.50683800774105003</v>
       </c>
       <c r="D48">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>70</v>
       </c>
@@ -2291,10 +2291,10 @@
         <v>0.24082107714890735</v>
       </c>
       <c r="D49">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>73</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>75</v>
       </c>
@@ -2319,10 +2319,10 @@
         <v>0.31293085526391767</v>
       </c>
       <c r="D51">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>76</v>
       </c>
@@ -2333,10 +2333,10 @@
         <v>0.46922657098869902</v>
       </c>
       <c r="D52">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>103</v>
       </c>
@@ -2347,10 +2347,10 @@
         <v>0.33775660217288916</v>
       </c>
       <c r="D53">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>104</v>
       </c>
@@ -2361,10 +2361,10 @@
         <v>0.42897133757610295</v>
       </c>
       <c r="D54">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>105</v>
       </c>
@@ -2375,10 +2375,10 @@
         <v>0.43098978999928866</v>
       </c>
       <c r="D55">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>106</v>
       </c>
@@ -2389,10 +2389,10 @@
         <v>0.52420861667665042</v>
       </c>
       <c r="D56">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>107</v>
       </c>
@@ -2403,10 +2403,10 @@
         <v>0.43576422691796574</v>
       </c>
       <c r="D57">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>108</v>
       </c>
@@ -2417,10 +2417,10 @@
         <v>0.36400927308008263</v>
       </c>
       <c r="D58">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>109</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>110</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>111</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0.311</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>112</v>
       </c>
@@ -2473,10 +2473,10 @@
         <v>0.33069104200423843</v>
       </c>
       <c r="D62">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>113</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>114</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>115</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>116</v>
       </c>
@@ -2529,10 +2529,10 @@
         <v>0.32650277385781812</v>
       </c>
       <c r="D66">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>117</v>
       </c>
@@ -2543,10 +2543,10 @@
         <v>0.34506081028580698</v>
       </c>
       <c r="D67">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>121</v>
       </c>
@@ -2557,10 +2557,10 @@
         <v>0.48971154778957676</v>
       </c>
       <c r="D68">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>122</v>
       </c>
@@ -2571,10 +2571,10 @@
         <v>0.64818709052446022</v>
       </c>
       <c r="D69">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>123</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>124</v>
       </c>
@@ -2599,10 +2599,10 @@
         <v>0.6328235660763486</v>
       </c>
       <c r="D71">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>125</v>
       </c>
@@ -2613,10 +2613,10 @@
         <v>0.6184412123018862</v>
       </c>
       <c r="D72">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>126</v>
       </c>
@@ -2627,10 +2627,10 @@
         <v>0.6184412123018862</v>
       </c>
       <c r="D73">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>127</v>
       </c>
@@ -2641,10 +2641,10 @@
         <v>0.62554973198351704</v>
       </c>
       <c r="D74">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>128</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>129</v>
       </c>
@@ -2669,10 +2669,10 @@
         <v>0.64803443161828422</v>
       </c>
       <c r="D76">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>130</v>
       </c>
@@ -2683,10 +2683,10 @@
         <v>0.63315954417087883</v>
       </c>
       <c r="D77">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>131</v>
       </c>
@@ -2697,10 +2697,10 @@
         <v>0.64149059080470616</v>
       </c>
       <c r="D78">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>132</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>133</v>
       </c>
@@ -2725,10 +2725,10 @@
         <v>0.61157979107291838</v>
       </c>
       <c r="D80">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>134</v>
       </c>
@@ -2739,10 +2739,10 @@
         <v>0.61157979107291838</v>
       </c>
       <c r="D81">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>135</v>
       </c>
@@ -2753,10 +2753,10 @@
         <v>0.64650283800479569</v>
       </c>
       <c r="D82">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>136</v>
       </c>
@@ -2767,10 +2767,10 @@
         <v>0.6310254053191503</v>
       </c>
       <c r="D83">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>137</v>
       </c>
@@ -2781,10 +2781,10 @@
         <v>0.62323496821644475</v>
       </c>
       <c r="D84">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>138</v>
       </c>
@@ -2795,10 +2795,10 @@
         <v>0.60577101266141942</v>
       </c>
       <c r="D85">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>139</v>
       </c>
@@ -2809,10 +2809,10 @@
         <v>0.62323496821644475</v>
       </c>
       <c r="D86">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>140</v>
       </c>
@@ -2823,10 +2823,10 @@
         <v>0.6310254053191503</v>
       </c>
       <c r="D87">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>141</v>
       </c>
@@ -2837,10 +2837,10 @@
         <v>0.59827365090535589</v>
       </c>
       <c r="D88">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>142</v>
       </c>
@@ -2851,10 +2851,10 @@
         <v>0.61031798334858023</v>
       </c>
       <c r="D89">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>143</v>
       </c>
@@ -2865,10 +2865,10 @@
         <v>0.6215569041655522</v>
       </c>
       <c r="D90">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>144</v>
       </c>
@@ -2879,10 +2879,10 @@
         <v>0.61424446999889859</v>
       </c>
       <c r="D91">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>145</v>
       </c>
@@ -2893,10 +2893,10 @@
         <v>0.59748706247271655</v>
       </c>
       <c r="D92">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>146</v>
       </c>
@@ -2907,10 +2907,10 @@
         <v>0.6215569041655522</v>
       </c>
       <c r="D93">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>147</v>
       </c>
@@ -2921,10 +2921,10 @@
         <v>0.59045780291421401</v>
       </c>
       <c r="D94">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>148</v>
       </c>
@@ -2935,10 +2935,10 @@
         <v>0.58359201450823484</v>
       </c>
       <c r="D95">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>149</v>
       </c>
@@ -2949,10 +2949,10 @@
         <v>0.60222111506426246</v>
       </c>
       <c r="D96">
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>150</v>
       </c>
@@ -2963,10 +2963,10 @@
         <v>0.61999456866989355</v>
       </c>
       <c r="D97">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>151</v>
       </c>
@@ -2977,10 +2977,10 @@
         <v>0.58997341786457447</v>
       </c>
       <c r="D98">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>152</v>
       </c>
@@ -2991,10 +2991,10 @@
         <v>0.61294917584409925</v>
       </c>
       <c r="D99">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>153</v>
       </c>
@@ -3005,10 +3005,10 @@
         <v>0.59482832228292881</v>
       </c>
       <c r="D100">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>154</v>
       </c>
@@ -3019,10 +3019,10 @@
         <v>0.60508994563755536</v>
       </c>
       <c r="D101">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>155</v>
       </c>
@@ -3033,10 +3033,10 @@
         <v>0.57684309996190219</v>
       </c>
       <c r="D102">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>156</v>
       </c>
@@ -3047,10 +3047,10 @@
         <v>0.5978856512815568</v>
       </c>
       <c r="D103">
-        <v>8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>157</v>
       </c>
@@ -3061,10 +3061,10 @@
         <v>0.57682453980032566</v>
       </c>
       <c r="D104">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>159</v>
       </c>
@@ -3075,10 +3075,10 @@
         <v>0.82875120567415406</v>
       </c>
       <c r="D105">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>160</v>
       </c>
@@ -3089,10 +3089,10 @@
         <v>0.55935620670773178</v>
       </c>
       <c r="D106">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>161</v>
       </c>
@@ -3103,10 +3103,10 @@
         <v>0.54954293992338554</v>
       </c>
       <c r="D107">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>162</v>
       </c>
@@ -3117,10 +3117,10 @@
         <v>0.55087825166678861</v>
       </c>
       <c r="D108">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>163</v>
       </c>
@@ -3131,10 +3131,10 @@
         <v>0.54346004100596368</v>
       </c>
       <c r="D109">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>164</v>
       </c>
@@ -3145,10 +3145,10 @@
         <v>0.53632042148161874</v>
       </c>
       <c r="D110">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>165</v>
       </c>
@@ -3159,10 +3159,10 @@
         <v>0.54184746065585765</v>
       </c>
       <c r="D111">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>166</v>
       </c>
@@ -3173,10 +3173,10 @@
         <v>0.5767031430293903</v>
       </c>
       <c r="D112">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>167</v>
       </c>
@@ -3187,10 +3187,10 @@
         <v>0.56987405344840203</v>
       </c>
       <c r="D113">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>168</v>
       </c>
@@ -3201,10 +3201,10 @@
         <v>0.56021517118656472</v>
       </c>
       <c r="D114">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>169</v>
       </c>
@@ -3215,10 +3215,10 @@
         <v>0.54346004100596368</v>
       </c>
       <c r="D115">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>171</v>
       </c>
@@ -3229,10 +3229,10 @@
         <v>0.82875120567415406</v>
       </c>
       <c r="D116">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>172</v>
       </c>
@@ -3243,10 +3243,10 @@
         <v>9.8568050306397662E-2</v>
       </c>
       <c r="D117">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>173</v>
       </c>
@@ -3257,10 +3257,10 @@
         <v>9.7572413434615868E-2</v>
       </c>
       <c r="D118">
-        <v>0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>174</v>
       </c>
@@ -3271,10 +3271,10 @@
         <v>0.11165114170981685</v>
       </c>
       <c r="D119">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>175</v>
       </c>
@@ -3285,10 +3285,10 @@
         <v>0.12746665019112047</v>
       </c>
       <c r="D120">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41299999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>176</v>
       </c>
@@ -3299,10 +3299,10 @@
         <v>0.1237468299884497</v>
       </c>
       <c r="D121">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>177</v>
       </c>
@@ -3313,10 +3313,10 @@
         <v>0.11165114170981685</v>
       </c>
       <c r="D122">
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.40699999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>178</v>
       </c>
@@ -3327,10 +3327,10 @@
         <v>9.2702610775888386E-2</v>
       </c>
       <c r="D123">
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>179</v>
       </c>
@@ -3341,10 +3341,10 @@
         <v>0.10641914695034083</v>
       </c>
       <c r="D124">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>180</v>
       </c>
@@ -3355,10 +3355,10 @@
         <v>0.11165114170981685</v>
       </c>
       <c r="D125">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>181</v>
       </c>
@@ -3369,10 +3369,10 @@
         <v>0.24226153728154956</v>
       </c>
       <c r="D126">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>182</v>
       </c>
@@ -3383,10 +3383,10 @@
         <v>0.24337829781596304</v>
       </c>
       <c r="D127">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>183</v>
       </c>
@@ -3397,10 +3397,10 @@
         <v>0.32186790280832656</v>
       </c>
       <c r="D128">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>184</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>185</v>
       </c>
@@ -3425,10 +3425,10 @@
         <v>0.22444923984518633</v>
       </c>
       <c r="D130">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>186</v>
       </c>
@@ -3439,10 +3439,10 @@
         <v>0.22444923984518633</v>
       </c>
       <c r="D131">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>187</v>
       </c>
@@ -3453,10 +3453,10 @@
         <v>0.22000026682515303</v>
       </c>
       <c r="D132">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>188</v>
       </c>
@@ -3467,10 +3467,10 @@
         <v>0.32450882909642409</v>
       </c>
       <c r="D133">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>189</v>
       </c>
@@ -3481,10 +3481,10 @@
         <v>0.22721634864315871</v>
       </c>
       <c r="D134">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>190</v>
       </c>
@@ -3495,10 +3495,10 @@
         <v>0.22721634864315871</v>
       </c>
       <c r="D135">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>191</v>
       </c>
@@ -3509,10 +3509,10 @@
         <v>0.30460733145847363</v>
       </c>
       <c r="D136">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>192</v>
       </c>
@@ -3523,10 +3523,10 @@
         <v>0.30668171897623075</v>
       </c>
       <c r="D137">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>193</v>
       </c>
@@ -3537,10 +3537,10 @@
         <v>0.30668171897623075</v>
       </c>
       <c r="D138">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>194</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>195</v>
       </c>
@@ -3565,10 +3565,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D140">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>196</v>
       </c>
@@ -3579,10 +3579,10 @@
         <v>0.21775641077832086</v>
       </c>
       <c r="D141">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>197</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>198</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>199</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>200</v>
       </c>
@@ -3635,10 +3635,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D145">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>201</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>202</v>
       </c>
@@ -3663,10 +3663,10 @@
         <v>0.339567572001502</v>
       </c>
       <c r="D147">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>203</v>
       </c>
@@ -3677,10 +3677,10 @@
         <v>0.20911023100938309</v>
       </c>
       <c r="D148">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>204</v>
       </c>
@@ -3691,10 +3691,10 @@
         <v>0.36855365576596172</v>
       </c>
       <c r="D149">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>205</v>
       </c>
@@ -3705,10 +3705,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D150">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>206</v>
       </c>
@@ -3719,10 +3719,10 @@
         <v>0.34054879898671514</v>
       </c>
       <c r="D151">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>207</v>
       </c>
@@ -3733,10 +3733,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D152">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>208</v>
       </c>
@@ -3747,10 +3747,10 @@
         <v>0.33574730326967761</v>
       </c>
       <c r="D153">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>209</v>
       </c>
@@ -3761,10 +3761,10 @@
         <v>0.3030999649890298</v>
       </c>
       <c r="D154">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>210</v>
       </c>
@@ -3775,10 +3775,10 @@
         <v>0.34927579688292365</v>
       </c>
       <c r="D155">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>211</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>212</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>213</v>
       </c>
@@ -3817,10 +3817,10 @@
         <v>0.16395187854559237</v>
       </c>
       <c r="D158">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>214</v>
       </c>
@@ -3831,10 +3831,10 @@
         <v>9.9186793143499243E-3</v>
       </c>
       <c r="D159">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>215</v>
       </c>
@@ -3845,10 +3845,10 @@
         <v>0.13106461703003178</v>
       </c>
       <c r="D160">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>216</v>
       </c>
@@ -3859,10 +3859,10 @@
         <v>-2.5934449726634997E-2</v>
       </c>
       <c r="D161">
-        <v>0.38700000000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>217</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>218</v>
       </c>
@@ -3887,10 +3887,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D163">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>219</v>
       </c>
@@ -3901,10 +3901,10 @@
         <v>0.34054879898671514</v>
       </c>
       <c r="D164">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>220</v>
       </c>
@@ -3915,10 +3915,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D165">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>221</v>
       </c>
@@ -3929,10 +3929,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D166">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>222</v>
       </c>
@@ -3943,10 +3943,10 @@
         <v>0.27905041619517817</v>
       </c>
       <c r="D167">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>223</v>
       </c>
@@ -3957,10 +3957,10 @@
         <v>0.28267444757433635</v>
       </c>
       <c r="D168">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>224</v>
       </c>
@@ -3971,10 +3971,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D169">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>225</v>
       </c>
@@ -3985,10 +3985,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D170">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>226</v>
       </c>
@@ -3999,10 +3999,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D171">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>227</v>
       </c>
@@ -4013,10 +4013,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D172">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>228</v>
       </c>
@@ -4027,10 +4027,10 @@
         <v>0.28025013643016838</v>
       </c>
       <c r="D173">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>229</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>230</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>231</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>232</v>
       </c>
@@ -4083,10 +4083,10 @@
         <v>0.37215998717739579</v>
       </c>
       <c r="D177">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>233</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>234</v>
       </c>
@@ -4111,10 +4111,10 @@
         <v>0.28267444757433635</v>
       </c>
       <c r="D179">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>235</v>
       </c>
@@ -4125,10 +4125,10 @@
         <v>0.28029608241399712</v>
       </c>
       <c r="D180">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>236</v>
       </c>
@@ -4139,10 +4139,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D181">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>237</v>
       </c>
@@ -4153,10 +4153,10 @@
         <v>0.32345197566814432</v>
       </c>
       <c r="D182">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>238</v>
       </c>
@@ -4167,10 +4167,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D183">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>239</v>
       </c>
@@ -4181,10 +4181,10 @@
         <v>0.34642033000372746</v>
       </c>
       <c r="D184">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>240</v>
       </c>
@@ -4195,10 +4195,10 @@
         <v>0.44893039528860706</v>
       </c>
       <c r="D185">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>245</v>
       </c>
@@ -4209,10 +4209,10 @@
         <v>0.2986128193327065</v>
       </c>
       <c r="D186">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>247</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>248</v>
       </c>
@@ -4237,10 +4237,10 @@
         <v>0.35133000284006782</v>
       </c>
       <c r="D188">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>252</v>
       </c>
@@ -4251,10 +4251,10 @@
         <v>0.1486596330048712</v>
       </c>
       <c r="D189">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>254</v>
       </c>
@@ -4265,10 +4265,10 @@
         <v>0.16917046311993975</v>
       </c>
       <c r="D190">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>255</v>
       </c>
@@ -4279,10 +4279,10 @@
         <v>-4.8151852541802986E-2</v>
       </c>
       <c r="D191">
-        <v>0.254</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>256</v>
       </c>
@@ -4293,10 +4293,10 @@
         <v>-4.4595332535437494E-2</v>
       </c>
       <c r="D192">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>257</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>259</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>260</v>
       </c>
@@ -4335,10 +4335,10 @@
         <v>0.10564976253366815</v>
       </c>
       <c r="D195">
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>261</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>263</v>
       </c>
@@ -4363,10 +4363,10 @@
         <v>0.90321994048086673</v>
       </c>
       <c r="D197">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>264</v>
       </c>
@@ -4377,10 +4377,10 @@
         <v>-0.12631635060010488</v>
       </c>
       <c r="D198">
-        <v>-9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>265</v>
       </c>
@@ -4391,10 +4391,10 @@
         <v>0.24599387484252991</v>
       </c>
       <c r="D199">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>266</v>
       </c>
@@ -4405,10 +4405,10 @@
         <v>0.22351867590289781</v>
       </c>
       <c r="D200">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>267</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>268</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>269</v>
       </c>
@@ -4447,10 +4447,10 @@
         <v>0.20017813134696688</v>
       </c>
       <c r="D203">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>272</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>277</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>306</v>
       </c>
@@ -4489,10 +4489,10 @@
         <v>0.40323662847666275</v>
       </c>
       <c r="D206">
-        <v>0.32700000000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>307</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>308</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>309</v>
       </c>
@@ -4531,10 +4531,10 @@
         <v>0.44481707437149842</v>
       </c>
       <c r="D209">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>321</v>
       </c>
@@ -4545,10 +4545,10 @@
         <v>0.39706696565483046</v>
       </c>
       <c r="D210">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>322</v>
       </c>
@@ -4559,10 +4559,10 @@
         <v>0.39706696565483046</v>
       </c>
       <c r="D211">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>323</v>
       </c>
@@ -4573,10 +4573,10 @@
         <v>0.39378586063642701</v>
       </c>
       <c r="D212">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -4601,10 +4601,10 @@
         <v>0.26170775866675572</v>
       </c>
       <c r="D214">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -4629,10 +4629,10 @@
         <v>0.2685814292144646</v>
       </c>
       <c r="D216">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -4643,10 +4643,10 @@
         <v>0.44389060045815526</v>
       </c>
       <c r="D217">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -4657,10 +4657,10 @@
         <v>0.11030615730598592</v>
       </c>
       <c r="D218">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>228</v>
       </c>
@@ -4671,10 +4671,10 @@
         <v>6.2027563631928205E-2</v>
       </c>
       <c r="D219">
-        <v>-0.44900000000000001</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>230</v>
       </c>
@@ -4685,10 +4685,10 @@
         <v>0.1884056588222883</v>
       </c>
       <c r="D220">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -4699,10 +4699,10 @@
         <v>0.32370661490625785</v>
       </c>
       <c r="D221">
-        <v>0.217</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -4713,10 +4713,10 @@
         <v>1.2623175617725977</v>
       </c>
       <c r="D222">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -4727,10 +4727,10 @@
         <v>-0.78832584904971281</v>
       </c>
       <c r="D223">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -4741,10 +4741,10 @@
         <v>0.2741280610457712</v>
       </c>
       <c r="D224">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>240</v>
       </c>
@@ -4755,10 +4755,10 @@
         <v>0.20752466546855267</v>
       </c>
       <c r="D225">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>244</v>
       </c>
@@ -4783,10 +4783,10 @@
         <v>0.39449234696233931</v>
       </c>
       <c r="D227">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>246</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -4811,10 +4811,10 @@
         <v>0.42757286250235699</v>
       </c>
       <c r="D229">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>250</v>
       </c>
@@ -4825,10 +4825,10 @@
         <v>0.5011157641652827</v>
       </c>
       <c r="D230">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>254</v>
       </c>
@@ -4853,10 +4853,10 @@
         <v>0.32450882909642409</v>
       </c>
       <c r="D232">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>256</v>
       </c>
@@ -4867,10 +4867,10 @@
         <v>0.45057483120319869</v>
       </c>
       <c r="D233">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>258</v>
       </c>
@@ -4881,10 +4881,10 @@
         <v>-0.12883044175819788</v>
       </c>
       <c r="D234">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>260</v>
       </c>
@@ -4895,10 +4895,10 @@
         <v>1.314173229180334E-2</v>
       </c>
       <c r="D235">
-        <v>-0.187</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>264</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>270</v>
       </c>
@@ -4965,10 +4965,10 @@
         <v>0.35809338837600929</v>
       </c>
       <c r="D240">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>272</v>
       </c>
@@ -4979,10 +4979,10 @@
         <v>0.41068891496730892</v>
       </c>
       <c r="D241">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>274</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -5007,10 +5007,10 @@
         <v>0.16285980636827366</v>
       </c>
       <c r="D243">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>278</v>
       </c>
@@ -5021,10 +5021,10 @@
         <v>0.23075383834609642</v>
       </c>
       <c r="D244">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>280</v>
       </c>
@@ -5035,10 +5035,10 @@
         <v>0.16698599005491971</v>
       </c>
       <c r="D245">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>282</v>
       </c>
@@ -5049,10 +5049,10 @@
         <v>0.17604854068542375</v>
       </c>
       <c r="D246">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>284</v>
       </c>
@@ -5063,10 +5063,10 @@
         <v>0.27122199098142968</v>
       </c>
       <c r="D247">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -5077,10 +5077,10 @@
         <v>0.31817366783778994</v>
       </c>
       <c r="D248">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -5091,10 +5091,10 @@
         <v>0.17810255744829714</v>
       </c>
       <c r="D249">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>290</v>
       </c>
@@ -5105,10 +5105,10 @@
         <v>0.14026096833315632</v>
       </c>
       <c r="D250">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -5119,10 +5119,10 @@
         <v>0.21344341935216457</v>
       </c>
       <c r="D251">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -5133,10 +5133,10 @@
         <v>7.3338048842815279E-2</v>
       </c>
       <c r="D252">
-        <v>0.23599999999999999</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>296</v>
       </c>
@@ -5147,10 +5147,10 @@
         <v>0.20871335302307703</v>
       </c>
       <c r="D253">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>298</v>
       </c>
@@ -5161,10 +5161,10 @@
         <v>0.32864627739787344</v>
       </c>
       <c r="D254">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>300</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>302</v>
       </c>
@@ -5189,10 +5189,10 @@
         <v>0.3407515689078095</v>
       </c>
       <c r="D256">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>304</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>306</v>
       </c>
@@ -5217,10 +5217,10 @@
         <v>0.19429191757199132</v>
       </c>
       <c r="D258">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>308</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>310</v>
       </c>
@@ -5245,10 +5245,10 @@
         <v>0.23517504880515078</v>
       </c>
       <c r="D260">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>312</v>
       </c>
@@ -5259,10 +5259,10 @@
         <v>0.29500889455202117</v>
       </c>
       <c r="D261">
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>314</v>
       </c>
@@ -5273,10 +5273,10 @@
         <v>0.56871202174168678</v>
       </c>
       <c r="D262">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>316</v>
       </c>
@@ -5287,10 +5287,10 @@
         <v>-0.13010091274565785</v>
       </c>
       <c r="D263">
-        <v>-0.254</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>318</v>
       </c>
@@ -5301,10 +5301,10 @@
         <v>0.87071047609389707</v>
       </c>
       <c r="D264">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -5315,10 +5315,10 @@
         <v>0.31136364610493117</v>
       </c>
       <c r="D265">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>322</v>
       </c>
@@ -5329,10 +5329,10 @@
         <v>3.7614729670547575E-3</v>
       </c>
       <c r="D266">
-        <v>-0.29499999999999998</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>324</v>
       </c>
@@ -5343,10 +5343,10 @@
         <v>0.5562258884846476</v>
       </c>
       <c r="D267">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>326</v>
       </c>
@@ -5357,10 +5357,10 @@
         <v>0.1081826874527642</v>
       </c>
       <c r="D268">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>328</v>
       </c>
@@ -5371,10 +5371,10 @@
         <v>0.28935180827527457</v>
       </c>
       <c r="D269">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>330</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>332</v>
       </c>
@@ -5399,10 +5399,10 @@
         <v>0.45461893086058014</v>
       </c>
       <c r="D271">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -5413,10 +5413,10 @@
         <v>2.0415095386998573E-2</v>
       </c>
       <c r="D272">
-        <v>-0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -5427,10 +5427,10 @@
         <v>-0.25147961077613762</v>
       </c>
       <c r="D273">
-        <v>0.433</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.43099999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -5441,10 +5441,10 @@
         <v>2.3233702385792091E-2</v>
       </c>
       <c r="D274">
-        <v>0.49099999999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>340</v>
       </c>
@@ -5455,10 +5455,10 @@
         <v>0.13591450122232501</v>
       </c>
       <c r="D275">
-        <v>-0.39400000000000002</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5469,10 +5469,10 @@
         <v>0.11981997526473812</v>
       </c>
       <c r="D276">
-        <v>-0.47599999999999998</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>344</v>
       </c>
@@ -5483,10 +5483,10 @@
         <v>0.36573245923020054</v>
       </c>
       <c r="D277">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>346</v>
       </c>
@@ -5497,10 +5497,10 @@
         <v>-0.42548383343102275</v>
       </c>
       <c r="D278">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>348</v>
       </c>
@@ -5511,10 +5511,10 @@
         <v>0.72983555264880884</v>
       </c>
       <c r="D279">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>350</v>
       </c>
@@ -5525,10 +5525,10 @@
         <v>0.13475215361577544</v>
       </c>
       <c r="D280">
-        <v>0.39900000000000002</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>352</v>
       </c>
@@ -5539,10 +5539,10 @@
         <v>-9.7417270920051188E-2</v>
       </c>
       <c r="D281">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>354</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>-0.32900000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>356</v>
       </c>
@@ -5567,10 +5567,10 @@
         <v>0.46862524975707925</v>
       </c>
       <c r="D283">
-        <v>-0.50600000000000001</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>358</v>
       </c>
@@ -5581,10 +5581,10 @@
         <v>3.7167114036461432E-2</v>
       </c>
       <c r="D284">
-        <v>-0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>360</v>
       </c>
@@ -5595,10 +5595,10 @@
         <v>6.9304797457253528E-2</v>
       </c>
       <c r="D285">
-        <v>-0.308</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>362</v>
       </c>
@@ -5609,10 +5609,10 @@
         <v>0.59448856684641838</v>
       </c>
       <c r="D286">
-        <v>0.36899999999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>364</v>
       </c>
@@ -5623,10 +5623,10 @@
         <v>0.23864773526012592</v>
       </c>
       <c r="D287">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>366</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>-0.14799999999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>368</v>
       </c>
@@ -5651,10 +5651,10 @@
         <v>-0.11887779096220824</v>
       </c>
       <c r="D289">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>370</v>
       </c>
@@ -5665,10 +5665,10 @@
         <v>0.76760213279929446</v>
       </c>
       <c r="D290">
-        <v>-0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -5679,10 +5679,10 @@
         <v>0.10592000622994802</v>
       </c>
       <c r="D291">
-        <v>-0.34899999999999998</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -5693,10 +5693,10 @@
         <v>0.26394580578965199</v>
       </c>
       <c r="D292">
-        <v>-0.38100000000000001</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.379</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>376</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>-0.376</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -5721,10 +5721,10 @@
         <v>0.32541059617094459</v>
       </c>
       <c r="D294">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>380</v>
       </c>
@@ -5735,10 +5735,10 @@
         <v>0.1149741767022705</v>
       </c>
       <c r="D295">
-        <v>0.41299999999999998</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -5749,10 +5749,10 @@
         <v>8.1722958489853156E-3</v>
       </c>
       <c r="D296">
-        <v>-0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>384</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>386</v>
       </c>
@@ -5777,10 +5777,10 @@
         <v>0.11303025084634691</v>
       </c>
       <c r="D298">
-        <v>-0.154</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.155</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>388</v>
       </c>
@@ -5791,10 +5791,10 @@
         <v>-4.5397733058689833E-2</v>
       </c>
       <c r="D299">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>390</v>
       </c>
@@ -5805,10 +5805,10 @@
         <v>-9.9332806925804984E-2</v>
       </c>
       <c r="D300">
-        <v>-0.108</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.105</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -5819,10 +5819,10 @@
         <v>-9.6048503244333838E-2</v>
       </c>
       <c r="D301">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.9E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>394</v>
       </c>
@@ -5833,10 +5833,10 @@
         <v>0.58737299913476781</v>
       </c>
       <c r="D302">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>396</v>
       </c>
@@ -5847,10 +5847,10 @@
         <v>3.171566879147434E-2</v>
       </c>
       <c r="D303">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>398</v>
       </c>
@@ -5861,10 +5861,10 @@
         <v>0.64580865841146451</v>
       </c>
       <c r="D304">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>400</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>-0.129</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>402</v>
       </c>
@@ -5889,10 +5889,10 @@
         <v>0.20057920183242242</v>
       </c>
       <c r="D306">
-        <v>0.35899999999999999</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>404</v>
       </c>
@@ -5903,10 +5903,10 @@
         <v>1.09860992643195</v>
       </c>
       <c r="D307">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>406</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>-1.6765753949896114E-2</v>
       </c>
       <c r="D308">
-        <v>-0.34300000000000003</v>
+        <v>-0.34200000000000003</v>
       </c>
     </row>
   </sheetData>
